--- a/cmd.xlsx
+++ b/cmd.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amine\Desktop\New folder (5)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCC23CD6-ACC9-4E1B-9C57-B0819110D786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE09E7A-C62F-4F6D-A0A3-7698551954F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="160" windowWidth="18900" windowHeight="9920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$578</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$578</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="465">
   <si>
     <t>Reference Article</t>
   </si>
@@ -1409,6 +1409,15 @@
   </si>
   <si>
     <t>AMORTISSEUR AR DRT EVOQUE BILSTEIN 22-249807</t>
+  </si>
+  <si>
+    <t>is he vip</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1446,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1460,11 +1469,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1473,6 +1493,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1775,10 +1798,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F578"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G578"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="C1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:G578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1788,7 +1812,7 @@
     <col min="5" max="5" width="9.36328125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1807,8 +1831,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1827,8 +1854,11 @@
       <c r="F2">
         <v>517</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1847,8 +1877,11 @@
       <c r="F3">
         <v>517</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1867,8 +1900,11 @@
       <c r="F4">
         <v>517</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1887,8 +1923,11 @@
       <c r="F5">
         <v>517</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1907,8 +1946,11 @@
       <c r="F6">
         <v>517</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1927,8 +1969,11 @@
       <c r="F7">
         <v>517</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1947,8 +1992,11 @@
       <c r="F8">
         <v>517</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1967,8 +2015,11 @@
       <c r="F9">
         <v>517</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1987,8 +2038,11 @@
       <c r="F10">
         <v>517</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2007,8 +2061,11 @@
       <c r="F11">
         <v>517</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2027,8 +2084,11 @@
       <c r="F12">
         <v>517</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2047,8 +2107,11 @@
       <c r="F13">
         <v>517</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -2067,8 +2130,11 @@
       <c r="F14">
         <v>517</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -2087,8 +2153,11 @@
       <c r="F15">
         <v>517</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -2107,8 +2176,11 @@
       <c r="F16">
         <v>517</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2127,8 +2199,11 @@
       <c r="F17">
         <v>517</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2147,8 +2222,11 @@
       <c r="F18">
         <v>517</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2167,8 +2245,11 @@
       <c r="F19">
         <v>517</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2187,8 +2268,11 @@
       <c r="F20">
         <v>517</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2207,8 +2291,11 @@
       <c r="F21">
         <v>517</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -2227,8 +2314,11 @@
       <c r="F22">
         <v>517</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -2247,8 +2337,11 @@
       <c r="F23">
         <v>517</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -2267,8 +2360,11 @@
       <c r="F24">
         <v>517</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2287,8 +2383,11 @@
       <c r="F25">
         <v>517</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2307,8 +2406,11 @@
       <c r="F26">
         <v>517</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -2327,8 +2429,11 @@
       <c r="F27">
         <v>517</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -2347,8 +2452,11 @@
       <c r="F28">
         <v>523</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -2367,8 +2475,11 @@
       <c r="F29">
         <v>523</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -2387,8 +2498,11 @@
       <c r="F30">
         <v>523</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="F31">
         <v>523</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -2427,8 +2544,11 @@
       <c r="F32">
         <v>523</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -2447,8 +2567,11 @@
       <c r="F33">
         <v>523</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -2467,8 +2590,11 @@
       <c r="F34">
         <v>523</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -2487,8 +2613,11 @@
       <c r="F35">
         <v>523</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -2507,8 +2636,11 @@
       <c r="F36">
         <v>523</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G36" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -2527,8 +2659,11 @@
       <c r="F37">
         <v>523</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G37" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -2547,8 +2682,11 @@
       <c r="F38">
         <v>523</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G38" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2567,8 +2705,11 @@
       <c r="F39">
         <v>523</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G39" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -2587,8 +2728,11 @@
       <c r="F40">
         <v>523</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G40" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -2607,8 +2751,11 @@
       <c r="F41">
         <v>523</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G41" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -2627,8 +2774,11 @@
       <c r="F42">
         <v>523</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G42" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -2647,8 +2797,11 @@
       <c r="F43">
         <v>523</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G43" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -2667,8 +2820,11 @@
       <c r="F44">
         <v>523</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G44" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -2687,8 +2843,11 @@
       <c r="F45">
         <v>523</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G45" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -2707,8 +2866,11 @@
       <c r="F46">
         <v>523</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G46" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -2727,8 +2889,11 @@
       <c r="F47">
         <v>523</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G47" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -2747,8 +2912,11 @@
       <c r="F48">
         <v>523</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G48" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -2767,8 +2935,11 @@
       <c r="F49">
         <v>523</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G49" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2787,8 +2958,11 @@
       <c r="F50">
         <v>523</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G50" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>99</v>
       </c>
@@ -2807,8 +2981,11 @@
       <c r="F51">
         <v>523</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G51" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -2827,8 +3004,11 @@
       <c r="F52">
         <v>523</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G52" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -2847,8 +3027,11 @@
       <c r="F53">
         <v>523</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G53" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>105</v>
       </c>
@@ -2867,8 +3050,11 @@
       <c r="F54">
         <v>523</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G54" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -2887,8 +3073,11 @@
       <c r="F55">
         <v>523</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G55" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -2907,8 +3096,11 @@
       <c r="F56">
         <v>523</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G56" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -2927,8 +3119,11 @@
       <c r="F57">
         <v>523</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G57" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2947,8 +3142,11 @@
       <c r="F58">
         <v>523</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G58" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -2967,8 +3165,11 @@
       <c r="F59">
         <v>523</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G59" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>111</v>
       </c>
@@ -2987,8 +3188,11 @@
       <c r="F60">
         <v>523</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G60" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -3007,8 +3211,11 @@
       <c r="F61">
         <v>523</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G61" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>113</v>
       </c>
@@ -3027,8 +3234,11 @@
       <c r="F62">
         <v>523</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G62" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -3047,8 +3257,11 @@
       <c r="F63">
         <v>523</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G63" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>115</v>
       </c>
@@ -3067,8 +3280,11 @@
       <c r="F64">
         <v>523</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G64" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -3087,8 +3303,11 @@
       <c r="F65">
         <v>523</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G65" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -3107,8 +3326,11 @@
       <c r="F66">
         <v>523</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G66" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>121</v>
       </c>
@@ -3127,8 +3349,11 @@
       <c r="F67">
         <v>523</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G67" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>123</v>
       </c>
@@ -3147,8 +3372,11 @@
       <c r="F68">
         <v>523</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G68" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>125</v>
       </c>
@@ -3167,8 +3395,11 @@
       <c r="F69">
         <v>523</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G69" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>127</v>
       </c>
@@ -3187,8 +3418,11 @@
       <c r="F70">
         <v>523</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G70" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>129</v>
       </c>
@@ -3207,8 +3441,11 @@
       <c r="F71">
         <v>523</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G71" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>131</v>
       </c>
@@ -3227,8 +3464,11 @@
       <c r="F72">
         <v>523</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G72" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -3247,8 +3487,11 @@
       <c r="F73">
         <v>523</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G73" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>135</v>
       </c>
@@ -3267,8 +3510,11 @@
       <c r="F74">
         <v>523</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G74" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>137</v>
       </c>
@@ -3287,8 +3533,11 @@
       <c r="F75">
         <v>523</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G75" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>139</v>
       </c>
@@ -3307,8 +3556,11 @@
       <c r="F76">
         <v>523</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G76" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>141</v>
       </c>
@@ -3327,8 +3579,11 @@
       <c r="F77">
         <v>523</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G77" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>143</v>
       </c>
@@ -3347,8 +3602,11 @@
       <c r="F78">
         <v>523</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G78" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>145</v>
       </c>
@@ -3367,8 +3625,11 @@
       <c r="F79">
         <v>523</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G79" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>147</v>
       </c>
@@ -3387,8 +3648,11 @@
       <c r="F80">
         <v>523</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G80" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>149</v>
       </c>
@@ -3407,8 +3671,11 @@
       <c r="F81">
         <v>523</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G81" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>151</v>
       </c>
@@ -3427,8 +3694,11 @@
       <c r="F82">
         <v>523</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G82" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>153</v>
       </c>
@@ -3447,8 +3717,11 @@
       <c r="F83">
         <v>523</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G83" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>155</v>
       </c>
@@ -3467,8 +3740,11 @@
       <c r="F84">
         <v>523</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G84" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>157</v>
       </c>
@@ -3487,8 +3763,11 @@
       <c r="F85">
         <v>523</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G85" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>159</v>
       </c>
@@ -3507,8 +3786,11 @@
       <c r="F86">
         <v>523</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G86" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>161</v>
       </c>
@@ -3527,8 +3809,11 @@
       <c r="F87">
         <v>523</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G87" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>163</v>
       </c>
@@ -3547,8 +3832,11 @@
       <c r="F88">
         <v>523</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G88" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>165</v>
       </c>
@@ -3567,8 +3855,11 @@
       <c r="F89">
         <v>523</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G89" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>167</v>
       </c>
@@ -3587,8 +3878,11 @@
       <c r="F90">
         <v>523</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G90" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>169</v>
       </c>
@@ -3607,8 +3901,11 @@
       <c r="F91">
         <v>523</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G91" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>171</v>
       </c>
@@ -3627,8 +3924,11 @@
       <c r="F92">
         <v>523</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G92" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>173</v>
       </c>
@@ -3647,8 +3947,11 @@
       <c r="F93">
         <v>523</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G93" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>175</v>
       </c>
@@ -3667,8 +3970,11 @@
       <c r="F94">
         <v>523</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G94" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>177</v>
       </c>
@@ -3687,8 +3993,11 @@
       <c r="F95">
         <v>523</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G95" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>178</v>
       </c>
@@ -3707,8 +4016,11 @@
       <c r="F96">
         <v>523</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G96" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>180</v>
       </c>
@@ -3727,8 +4039,11 @@
       <c r="F97">
         <v>523</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G97" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>181</v>
       </c>
@@ -3747,8 +4062,11 @@
       <c r="F98">
         <v>523</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G98" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>183</v>
       </c>
@@ -3767,8 +4085,11 @@
       <c r="F99">
         <v>523</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G99" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>185</v>
       </c>
@@ -3787,8 +4108,11 @@
       <c r="F100">
         <v>523</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G100" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>187</v>
       </c>
@@ -3807,8 +4131,11 @@
       <c r="F101">
         <v>523</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G101" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>189</v>
       </c>
@@ -3827,8 +4154,11 @@
       <c r="F102">
         <v>523</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G102" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>191</v>
       </c>
@@ -3847,8 +4177,11 @@
       <c r="F103">
         <v>523</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G103" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>193</v>
       </c>
@@ -3867,8 +4200,11 @@
       <c r="F104">
         <v>523</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G104" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>195</v>
       </c>
@@ -3887,8 +4223,11 @@
       <c r="F105">
         <v>523</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G105" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>197</v>
       </c>
@@ -3907,8 +4246,11 @@
       <c r="F106">
         <v>523</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G106" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>199</v>
       </c>
@@ -3927,8 +4269,11 @@
       <c r="F107">
         <v>523</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G107" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>79</v>
       </c>
@@ -3947,8 +4292,11 @@
       <c r="F108">
         <v>535</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G108" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>119</v>
       </c>
@@ -3967,8 +4315,11 @@
       <c r="F109">
         <v>535</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G109" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -3987,8 +4338,11 @@
       <c r="F110">
         <v>535</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G110" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>201</v>
       </c>
@@ -4007,8 +4361,11 @@
       <c r="F111">
         <v>535</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G111" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>203</v>
       </c>
@@ -4027,8 +4384,11 @@
       <c r="F112">
         <v>535</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G112" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>205</v>
       </c>
@@ -4047,8 +4407,11 @@
       <c r="F113">
         <v>535</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G113" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>207</v>
       </c>
@@ -4067,8 +4430,11 @@
       <c r="F114">
         <v>535</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G114" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>209</v>
       </c>
@@ -4087,8 +4453,11 @@
       <c r="F115">
         <v>535</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G115" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>211</v>
       </c>
@@ -4107,8 +4476,11 @@
       <c r="F116">
         <v>535</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G116" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>213</v>
       </c>
@@ -4127,8 +4499,11 @@
       <c r="F117">
         <v>535</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G117" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>215</v>
       </c>
@@ -4147,8 +4522,11 @@
       <c r="F118">
         <v>535</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G118" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>53</v>
       </c>
@@ -4167,8 +4545,11 @@
       <c r="F119">
         <v>535</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G119" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>51</v>
       </c>
@@ -4187,8 +4568,11 @@
       <c r="F120">
         <v>535</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G120" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>217</v>
       </c>
@@ -4207,8 +4591,11 @@
       <c r="F121">
         <v>535</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G121" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>219</v>
       </c>
@@ -4227,8 +4614,11 @@
       <c r="F122">
         <v>535</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G122" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>221</v>
       </c>
@@ -4247,8 +4637,11 @@
       <c r="F123">
         <v>535</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G123" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>223</v>
       </c>
@@ -4267,8 +4660,11 @@
       <c r="F124">
         <v>535</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G124" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>225</v>
       </c>
@@ -4287,8 +4683,11 @@
       <c r="F125">
         <v>535</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G125" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>227</v>
       </c>
@@ -4307,8 +4706,11 @@
       <c r="F126">
         <v>535</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G126" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>229</v>
       </c>
@@ -4327,8 +4729,11 @@
       <c r="F127">
         <v>535</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G127" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>231</v>
       </c>
@@ -4347,8 +4752,11 @@
       <c r="F128">
         <v>535</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G128" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>233</v>
       </c>
@@ -4367,8 +4775,11 @@
       <c r="F129">
         <v>538</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G129" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>235</v>
       </c>
@@ -4387,8 +4798,11 @@
       <c r="F130">
         <v>538</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G130" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>237</v>
       </c>
@@ -4407,8 +4821,11 @@
       <c r="F131">
         <v>538</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G131" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>239</v>
       </c>
@@ -4427,8 +4844,11 @@
       <c r="F132">
         <v>538</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G132" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>129</v>
       </c>
@@ -4447,8 +4867,11 @@
       <c r="F133">
         <v>538</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G133" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -4467,8 +4890,11 @@
       <c r="F134">
         <v>538</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G134" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -4487,8 +4913,11 @@
       <c r="F135">
         <v>538</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G135" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>241</v>
       </c>
@@ -4507,8 +4936,11 @@
       <c r="F136">
         <v>538</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G136" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>45</v>
       </c>
@@ -4527,8 +4959,11 @@
       <c r="F137">
         <v>538</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G137" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>243</v>
       </c>
@@ -4547,8 +4982,11 @@
       <c r="F138">
         <v>538</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G138" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>245</v>
       </c>
@@ -4567,8 +5005,11 @@
       <c r="F139">
         <v>538</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G139" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>185</v>
       </c>
@@ -4587,8 +5028,11 @@
       <c r="F140">
         <v>538</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G140" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>247</v>
       </c>
@@ -4607,8 +5051,11 @@
       <c r="F141">
         <v>538</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G141" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>249</v>
       </c>
@@ -4627,8 +5074,11 @@
       <c r="F142">
         <v>538</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G142" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>233</v>
       </c>
@@ -4647,8 +5097,11 @@
       <c r="F143">
         <v>540</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G143" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>235</v>
       </c>
@@ -4667,8 +5120,11 @@
       <c r="F144">
         <v>540</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G144" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>127</v>
       </c>
@@ -4687,8 +5143,11 @@
       <c r="F145">
         <v>540</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G145" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>129</v>
       </c>
@@ -4707,8 +5166,11 @@
       <c r="F146">
         <v>540</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G146" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>131</v>
       </c>
@@ -4727,8 +5189,11 @@
       <c r="F147">
         <v>540</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G147" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>39</v>
       </c>
@@ -4747,8 +5212,11 @@
       <c r="F148">
         <v>540</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G148" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>135</v>
       </c>
@@ -4767,8 +5235,11 @@
       <c r="F149">
         <v>540</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G149" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>137</v>
       </c>
@@ -4787,8 +5258,11 @@
       <c r="F150">
         <v>540</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G150" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>139</v>
       </c>
@@ -4807,8 +5281,11 @@
       <c r="F151">
         <v>540</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G151" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>241</v>
       </c>
@@ -4827,8 +5304,11 @@
       <c r="F152">
         <v>540</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G152" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>41</v>
       </c>
@@ -4847,8 +5327,11 @@
       <c r="F153">
         <v>540</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G153" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>43</v>
       </c>
@@ -4867,8 +5350,11 @@
       <c r="F154">
         <v>540</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G154" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>251</v>
       </c>
@@ -4887,8 +5373,11 @@
       <c r="F155">
         <v>540</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G155" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>253</v>
       </c>
@@ -4907,8 +5396,11 @@
       <c r="F156">
         <v>540</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G156" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>45</v>
       </c>
@@ -4927,8 +5419,11 @@
       <c r="F157">
         <v>540</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G157" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>255</v>
       </c>
@@ -4947,8 +5442,11 @@
       <c r="F158">
         <v>540</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G158" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>47</v>
       </c>
@@ -4967,8 +5465,11 @@
       <c r="F159">
         <v>540</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G159" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>257</v>
       </c>
@@ -4987,8 +5488,11 @@
       <c r="F160">
         <v>540</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G160" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>259</v>
       </c>
@@ -5007,8 +5511,11 @@
       <c r="F161">
         <v>540</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G161" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>261</v>
       </c>
@@ -5027,8 +5534,11 @@
       <c r="F162">
         <v>540</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G162" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>263</v>
       </c>
@@ -5047,8 +5557,11 @@
       <c r="F163">
         <v>540</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G163" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>185</v>
       </c>
@@ -5067,8 +5580,11 @@
       <c r="F164">
         <v>540</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G164" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>265</v>
       </c>
@@ -5087,8 +5603,11 @@
       <c r="F165">
         <v>540</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G165" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>267</v>
       </c>
@@ -5107,8 +5626,11 @@
       <c r="F166">
         <v>540</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G166" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>269</v>
       </c>
@@ -5127,8 +5649,11 @@
       <c r="F167">
         <v>540</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G167" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>271</v>
       </c>
@@ -5147,8 +5672,11 @@
       <c r="F168">
         <v>540</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G168" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>247</v>
       </c>
@@ -5167,8 +5695,11 @@
       <c r="F169">
         <v>540</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G169" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>249</v>
       </c>
@@ -5187,8 +5718,11 @@
       <c r="F170">
         <v>540</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G170" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>273</v>
       </c>
@@ -5207,8 +5741,11 @@
       <c r="F171">
         <v>569</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G171" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>199</v>
       </c>
@@ -5227,8 +5764,11 @@
       <c r="F172">
         <v>569</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G172" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>275</v>
       </c>
@@ -5247,8 +5787,11 @@
       <c r="F173">
         <v>569</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G173" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>249</v>
       </c>
@@ -5267,8 +5810,11 @@
       <c r="F174">
         <v>569</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G174" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>277</v>
       </c>
@@ -5287,8 +5833,11 @@
       <c r="F175">
         <v>569</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G175" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>279</v>
       </c>
@@ -5307,8 +5856,11 @@
       <c r="F176">
         <v>569</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G176" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>281</v>
       </c>
@@ -5327,8 +5879,11 @@
       <c r="F177">
         <v>569</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G177" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>283</v>
       </c>
@@ -5347,8 +5902,11 @@
       <c r="F178">
         <v>569</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G178" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>285</v>
       </c>
@@ -5367,8 +5925,11 @@
       <c r="F179">
         <v>569</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G179" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>287</v>
       </c>
@@ -5387,8 +5948,11 @@
       <c r="F180">
         <v>569</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G180" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>289</v>
       </c>
@@ -5407,8 +5971,11 @@
       <c r="F181">
         <v>569</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G181" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>205</v>
       </c>
@@ -5427,8 +5994,11 @@
       <c r="F182">
         <v>574</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G182" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>127</v>
       </c>
@@ -5447,8 +6017,11 @@
       <c r="F183">
         <v>574</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G183" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>129</v>
       </c>
@@ -5467,8 +6040,11 @@
       <c r="F184">
         <v>574</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G184" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>39</v>
       </c>
@@ -5487,8 +6063,11 @@
       <c r="F185">
         <v>574</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G185" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>135</v>
       </c>
@@ -5507,8 +6086,11 @@
       <c r="F186">
         <v>574</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G186" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>291</v>
       </c>
@@ -5527,8 +6109,11 @@
       <c r="F187">
         <v>574</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G187" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>257</v>
       </c>
@@ -5547,8 +6132,11 @@
       <c r="F188">
         <v>593</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G188" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>259</v>
       </c>
@@ -5567,8 +6155,11 @@
       <c r="F189">
         <v>593</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G189" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>155</v>
       </c>
@@ -5587,8 +6178,11 @@
       <c r="F190">
         <v>593</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G190" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>261</v>
       </c>
@@ -5607,8 +6201,11 @@
       <c r="F191">
         <v>593</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G191" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>263</v>
       </c>
@@ -5627,8 +6224,11 @@
       <c r="F192">
         <v>593</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G192" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>185</v>
       </c>
@@ -5647,8 +6247,11 @@
       <c r="F193">
         <v>593</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G193" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>293</v>
       </c>
@@ -5667,8 +6270,11 @@
       <c r="F194">
         <v>593</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G194" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>295</v>
       </c>
@@ -5687,8 +6293,11 @@
       <c r="F195">
         <v>593</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G195" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>297</v>
       </c>
@@ -5707,8 +6316,11 @@
       <c r="F196">
         <v>593</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G196" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>299</v>
       </c>
@@ -5727,8 +6339,11 @@
       <c r="F197">
         <v>593</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G197" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>301</v>
       </c>
@@ -5747,8 +6362,11 @@
       <c r="F198">
         <v>594</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G198" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>303</v>
       </c>
@@ -5767,8 +6385,11 @@
       <c r="F199">
         <v>594</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G199" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>305</v>
       </c>
@@ -5787,8 +6408,11 @@
       <c r="F200">
         <v>594</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G200" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>307</v>
       </c>
@@ -5807,8 +6431,11 @@
       <c r="F201">
         <v>594</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G201" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>79</v>
       </c>
@@ -5827,8 +6454,11 @@
       <c r="F202">
         <v>594</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G202" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>309</v>
       </c>
@@ -5847,8 +6477,11 @@
       <c r="F203">
         <v>594</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G203" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>311</v>
       </c>
@@ -5867,8 +6500,11 @@
       <c r="F204">
         <v>594</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G204" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>313</v>
       </c>
@@ -5887,8 +6523,11 @@
       <c r="F205">
         <v>594</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G205" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>85</v>
       </c>
@@ -5907,8 +6546,11 @@
       <c r="F206">
         <v>594</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G206" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>315</v>
       </c>
@@ -5927,8 +6569,11 @@
       <c r="F207">
         <v>594</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G207" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>317</v>
       </c>
@@ -5947,8 +6592,11 @@
       <c r="F208">
         <v>594</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G208" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>119</v>
       </c>
@@ -5967,8 +6615,11 @@
       <c r="F209">
         <v>594</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G209" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>319</v>
       </c>
@@ -5987,8 +6638,11 @@
       <c r="F210">
         <v>594</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G210" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>123</v>
       </c>
@@ -6007,8 +6661,11 @@
       <c r="F211">
         <v>594</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G211" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>205</v>
       </c>
@@ -6027,8 +6684,11 @@
       <c r="F212">
         <v>594</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G212" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>321</v>
       </c>
@@ -6047,8 +6707,11 @@
       <c r="F213">
         <v>594</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G213" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>323</v>
       </c>
@@ -6067,8 +6730,11 @@
       <c r="F214">
         <v>594</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G214" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>41</v>
       </c>
@@ -6087,8 +6753,11 @@
       <c r="F215">
         <v>594</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G215" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>143</v>
       </c>
@@ -6107,8 +6776,11 @@
       <c r="F216">
         <v>594</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G216" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>325</v>
       </c>
@@ -6127,8 +6799,11 @@
       <c r="F217">
         <v>594</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G217" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>145</v>
       </c>
@@ -6147,8 +6822,11 @@
       <c r="F218">
         <v>594</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G218" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>139</v>
       </c>
@@ -6167,8 +6845,11 @@
       <c r="F219">
         <v>594</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G219" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>327</v>
       </c>
@@ -6187,8 +6868,11 @@
       <c r="F220">
         <v>594</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G220" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>329</v>
       </c>
@@ -6207,8 +6891,11 @@
       <c r="F221">
         <v>594</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G221" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>209</v>
       </c>
@@ -6227,8 +6914,11 @@
       <c r="F222">
         <v>594</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G222" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>211</v>
       </c>
@@ -6247,8 +6937,11 @@
       <c r="F223">
         <v>594</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G223" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>51</v>
       </c>
@@ -6267,8 +6960,11 @@
       <c r="F224">
         <v>594</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G224" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>55</v>
       </c>
@@ -6287,8 +6983,11 @@
       <c r="F225">
         <v>594</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G225" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>331</v>
       </c>
@@ -6307,8 +7006,11 @@
       <c r="F226">
         <v>594</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G226" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>333</v>
       </c>
@@ -6327,8 +7029,11 @@
       <c r="F227">
         <v>594</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G227" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>335</v>
       </c>
@@ -6347,8 +7052,11 @@
       <c r="F228">
         <v>594</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G228" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>337</v>
       </c>
@@ -6367,8 +7075,11 @@
       <c r="F229">
         <v>594</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G229" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>149</v>
       </c>
@@ -6387,8 +7098,11 @@
       <c r="F230">
         <v>594</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G230" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>339</v>
       </c>
@@ -6407,8 +7121,11 @@
       <c r="F231">
         <v>594</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G231" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>341</v>
       </c>
@@ -6427,8 +7144,11 @@
       <c r="F232">
         <v>594</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G232" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>343</v>
       </c>
@@ -6447,8 +7167,11 @@
       <c r="F233">
         <v>594</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G233" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>345</v>
       </c>
@@ -6467,8 +7190,11 @@
       <c r="F234">
         <v>594</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G234" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>57</v>
       </c>
@@ -6487,8 +7213,11 @@
       <c r="F235">
         <v>622</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G235" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>85</v>
       </c>
@@ -6507,8 +7236,11 @@
       <c r="F236">
         <v>622</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G236" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>49</v>
       </c>
@@ -6527,8 +7259,11 @@
       <c r="F237">
         <v>622</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G237" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>37</v>
       </c>
@@ -6547,8 +7282,11 @@
       <c r="F238">
         <v>622</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G238" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>347</v>
       </c>
@@ -6567,8 +7305,11 @@
       <c r="F239">
         <v>622</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G239" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>133</v>
       </c>
@@ -6587,8 +7328,11 @@
       <c r="F240">
         <v>622</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G240" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>135</v>
       </c>
@@ -6607,8 +7351,11 @@
       <c r="F241">
         <v>622</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G241" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>141</v>
       </c>
@@ -6627,8 +7374,11 @@
       <c r="F242">
         <v>622</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G242" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>213</v>
       </c>
@@ -6647,8 +7397,11 @@
       <c r="F243">
         <v>622</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G243" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>348</v>
       </c>
@@ -6667,8 +7420,11 @@
       <c r="F244">
         <v>622</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G244" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>350</v>
       </c>
@@ -6687,8 +7443,11 @@
       <c r="F245">
         <v>622</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G245" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>89</v>
       </c>
@@ -6707,8 +7466,11 @@
       <c r="F246">
         <v>132</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G246" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>39</v>
       </c>
@@ -6727,8 +7489,11 @@
       <c r="F247">
         <v>132</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G247" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>352</v>
       </c>
@@ -6747,8 +7512,11 @@
       <c r="F248">
         <v>132</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G248" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>354</v>
       </c>
@@ -6767,8 +7535,11 @@
       <c r="F249">
         <v>132</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G249" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>125</v>
       </c>
@@ -6787,8 +7558,11 @@
       <c r="F250">
         <v>132</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G250" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>123</v>
       </c>
@@ -6807,8 +7581,11 @@
       <c r="F251">
         <v>132</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G251" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>356</v>
       </c>
@@ -6827,8 +7604,11 @@
       <c r="F252">
         <v>132</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G252" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>59</v>
       </c>
@@ -6847,8 +7627,11 @@
       <c r="F253">
         <v>151</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G253" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>65</v>
       </c>
@@ -6867,8 +7650,11 @@
       <c r="F254">
         <v>151</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G254" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>358</v>
       </c>
@@ -6887,8 +7673,11 @@
       <c r="F255">
         <v>151</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G255" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>107</v>
       </c>
@@ -6907,8 +7696,11 @@
       <c r="F256">
         <v>151</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G256" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>6</v>
       </c>
@@ -6927,8 +7719,11 @@
       <c r="F257">
         <v>151</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G257" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>10</v>
       </c>
@@ -6947,8 +7742,11 @@
       <c r="F258">
         <v>151</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G258" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>12</v>
       </c>
@@ -6967,8 +7765,11 @@
       <c r="F259">
         <v>151</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G259" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>360</v>
       </c>
@@ -6987,8 +7788,11 @@
       <c r="F260">
         <v>151</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G260" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>109</v>
       </c>
@@ -7007,8 +7811,11 @@
       <c r="F261">
         <v>151</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G261" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>362</v>
       </c>
@@ -7027,8 +7834,11 @@
       <c r="F262">
         <v>151</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G262" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>24</v>
       </c>
@@ -7047,8 +7857,11 @@
       <c r="F263">
         <v>151</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G263" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>37</v>
       </c>
@@ -7067,8 +7880,11 @@
       <c r="F264">
         <v>151</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G264" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>129</v>
       </c>
@@ -7087,8 +7903,11 @@
       <c r="F265">
         <v>151</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G265" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>364</v>
       </c>
@@ -7107,8 +7926,11 @@
       <c r="F266">
         <v>151</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G266" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>321</v>
       </c>
@@ -7127,8 +7949,11 @@
       <c r="F267">
         <v>151</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G267" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>323</v>
       </c>
@@ -7147,8 +7972,11 @@
       <c r="F268">
         <v>151</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G268" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>131</v>
       </c>
@@ -7167,8 +7995,11 @@
       <c r="F269">
         <v>151</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G269" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>133</v>
       </c>
@@ -7187,8 +8018,11 @@
       <c r="F270">
         <v>151</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G270" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>39</v>
       </c>
@@ -7207,8 +8041,11 @@
       <c r="F271">
         <v>151</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G271" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>135</v>
       </c>
@@ -7227,8 +8064,11 @@
       <c r="F272">
         <v>151</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G272" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>137</v>
       </c>
@@ -7247,8 +8087,11 @@
       <c r="F273">
         <v>151</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G273" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>139</v>
       </c>
@@ -7267,8 +8110,11 @@
       <c r="F274">
         <v>151</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G274" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>241</v>
       </c>
@@ -7287,8 +8133,11 @@
       <c r="F275">
         <v>151</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G275" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>41</v>
       </c>
@@ -7307,8 +8156,11 @@
       <c r="F276">
         <v>151</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G276" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>141</v>
       </c>
@@ -7327,8 +8179,11 @@
       <c r="F277">
         <v>151</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G277" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>366</v>
       </c>
@@ -7347,8 +8202,11 @@
       <c r="F278">
         <v>151</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G278" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>368</v>
       </c>
@@ -7367,8 +8225,11 @@
       <c r="F279">
         <v>151</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G279" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>43</v>
       </c>
@@ -7387,8 +8248,11 @@
       <c r="F280">
         <v>151</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G280" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>370</v>
       </c>
@@ -7407,8 +8271,11 @@
       <c r="F281">
         <v>151</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G281" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>251</v>
       </c>
@@ -7427,8 +8294,11 @@
       <c r="F282">
         <v>151</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G282" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>143</v>
       </c>
@@ -7447,8 +8317,11 @@
       <c r="F283">
         <v>151</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G283" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>45</v>
       </c>
@@ -7467,8 +8340,11 @@
       <c r="F284">
         <v>151</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G284" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>255</v>
       </c>
@@ -7487,8 +8363,11 @@
       <c r="F285">
         <v>151</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G285" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>325</v>
       </c>
@@ -7507,8 +8386,11 @@
       <c r="F286">
         <v>151</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G286" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>145</v>
       </c>
@@ -7527,8 +8409,11 @@
       <c r="F287">
         <v>151</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G287" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>47</v>
       </c>
@@ -7547,8 +8432,11 @@
       <c r="F288">
         <v>151</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G288" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>247</v>
       </c>
@@ -7567,8 +8455,11 @@
       <c r="F289">
         <v>151</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G289" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>8</v>
       </c>
@@ -7587,8 +8478,11 @@
       <c r="F290">
         <v>267</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G290" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>81</v>
       </c>
@@ -7607,8 +8501,11 @@
       <c r="F291">
         <v>267</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G291" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>6</v>
       </c>
@@ -7627,8 +8524,11 @@
       <c r="F292">
         <v>267</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G292" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>372</v>
       </c>
@@ -7647,8 +8547,11 @@
       <c r="F293">
         <v>267</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G293" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>374</v>
       </c>
@@ -7667,8 +8570,11 @@
       <c r="F294">
         <v>267</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G294" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>376</v>
       </c>
@@ -7687,8 +8593,11 @@
       <c r="F295">
         <v>267</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G295" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>175</v>
       </c>
@@ -7707,8 +8616,11 @@
       <c r="F296">
         <v>267</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G296" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>177</v>
       </c>
@@ -7727,8 +8639,11 @@
       <c r="F297">
         <v>267</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G297" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>185</v>
       </c>
@@ -7747,8 +8662,11 @@
       <c r="F298">
         <v>267</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G298" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>378</v>
       </c>
@@ -7767,8 +8685,11 @@
       <c r="F299">
         <v>267</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G299" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>297</v>
       </c>
@@ -7787,8 +8708,11 @@
       <c r="F300">
         <v>267</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G300" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>265</v>
       </c>
@@ -7807,8 +8731,11 @@
       <c r="F301">
         <v>267</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G301" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>119</v>
       </c>
@@ -7827,8 +8754,11 @@
       <c r="F302">
         <v>267</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G302" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>39</v>
       </c>
@@ -7847,8 +8777,11 @@
       <c r="F303">
         <v>267</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G303" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>135</v>
       </c>
@@ -7867,8 +8800,11 @@
       <c r="F304">
         <v>267</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G304" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>41</v>
       </c>
@@ -7887,8 +8823,11 @@
       <c r="F305">
         <v>267</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G305" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>368</v>
       </c>
@@ -7907,8 +8846,11 @@
       <c r="F306">
         <v>267</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G306" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>147</v>
       </c>
@@ -7927,8 +8869,11 @@
       <c r="F307">
         <v>286</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G307" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>209</v>
       </c>
@@ -7947,8 +8892,11 @@
       <c r="F308">
         <v>286</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G308" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>380</v>
       </c>
@@ -7967,8 +8915,11 @@
       <c r="F309">
         <v>286</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G309" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>352</v>
       </c>
@@ -7987,8 +8938,11 @@
       <c r="F310">
         <v>286</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G310" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>231</v>
       </c>
@@ -8007,8 +8961,11 @@
       <c r="F311">
         <v>286</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G311" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>123</v>
       </c>
@@ -8027,8 +8984,11 @@
       <c r="F312">
         <v>286</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G312" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>382</v>
       </c>
@@ -8047,8 +9007,11 @@
       <c r="F313">
         <v>286</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G313" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>133</v>
       </c>
@@ -8067,8 +9030,11 @@
       <c r="F314">
         <v>286</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G314" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>384</v>
       </c>
@@ -8087,8 +9053,11 @@
       <c r="F315">
         <v>286</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G315" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>145</v>
       </c>
@@ -8107,8 +9076,11 @@
       <c r="F316">
         <v>286</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G316" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>47</v>
       </c>
@@ -8127,8 +9099,11 @@
       <c r="F317">
         <v>286</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G317" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>253</v>
       </c>
@@ -8147,8 +9122,11 @@
       <c r="F318">
         <v>286</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G318" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>39</v>
       </c>
@@ -8167,8 +9145,11 @@
       <c r="F319">
         <v>286</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G319" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>135</v>
       </c>
@@ -8187,8 +9168,11 @@
       <c r="F320">
         <v>286</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G320" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>41</v>
       </c>
@@ -8207,8 +9191,11 @@
       <c r="F321">
         <v>286</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G321" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>213</v>
       </c>
@@ -8227,8 +9214,11 @@
       <c r="F322">
         <v>286</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G322" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>219</v>
       </c>
@@ -8247,8 +9237,11 @@
       <c r="F323">
         <v>286</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G323" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>53</v>
       </c>
@@ -8267,8 +9260,11 @@
       <c r="F324">
         <v>286</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G324" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>331</v>
       </c>
@@ -8287,8 +9283,11 @@
       <c r="F325">
         <v>286</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G325" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>386</v>
       </c>
@@ -8307,8 +9306,11 @@
       <c r="F326">
         <v>286</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G326" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>241</v>
       </c>
@@ -8327,8 +9329,11 @@
       <c r="F327">
         <v>286</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G327" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>12</v>
       </c>
@@ -8347,8 +9352,11 @@
       <c r="F328">
         <v>286</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G328" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>139</v>
       </c>
@@ -8367,8 +9375,11 @@
       <c r="F329">
         <v>286</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G329" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>368</v>
       </c>
@@ -8387,8 +9398,11 @@
       <c r="F330">
         <v>286</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G330" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>131</v>
       </c>
@@ -8407,8 +9421,11 @@
       <c r="F331">
         <v>286</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G331" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>39</v>
       </c>
@@ -8427,8 +9444,11 @@
       <c r="F332">
         <v>294</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G332" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>135</v>
       </c>
@@ -8447,8 +9467,11 @@
       <c r="F333">
         <v>294</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G333" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>352</v>
       </c>
@@ -8467,8 +9490,11 @@
       <c r="F334">
         <v>294</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G334" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>388</v>
       </c>
@@ -8487,8 +9513,11 @@
       <c r="F335">
         <v>294</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G335" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>390</v>
       </c>
@@ -8507,8 +9536,11 @@
       <c r="F336">
         <v>294</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G336" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>392</v>
       </c>
@@ -8527,8 +9559,11 @@
       <c r="F337">
         <v>294</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G337" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>273</v>
       </c>
@@ -8547,8 +9582,11 @@
       <c r="F338">
         <v>294</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G338" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>233</v>
       </c>
@@ -8567,8 +9605,11 @@
       <c r="F339">
         <v>306</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G339" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>235</v>
       </c>
@@ -8587,8 +9628,11 @@
       <c r="F340">
         <v>306</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G340" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>57</v>
       </c>
@@ -8607,8 +9651,11 @@
       <c r="F341">
         <v>306</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G341" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>394</v>
       </c>
@@ -8627,8 +9674,11 @@
       <c r="F342">
         <v>306</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G342" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>10</v>
       </c>
@@ -8647,8 +9697,11 @@
       <c r="F343">
         <v>306</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G343" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>12</v>
       </c>
@@ -8667,8 +9720,11 @@
       <c r="F344">
         <v>306</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G344" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>111</v>
       </c>
@@ -8687,8 +9743,11 @@
       <c r="F345">
         <v>306</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G345" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>131</v>
       </c>
@@ -8707,8 +9766,11 @@
       <c r="F346">
         <v>306</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G346" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>133</v>
       </c>
@@ -8727,8 +9789,11 @@
       <c r="F347">
         <v>306</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G347" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>39</v>
       </c>
@@ -8747,8 +9812,11 @@
       <c r="F348">
         <v>306</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G348" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>41</v>
       </c>
@@ -8767,8 +9835,11 @@
       <c r="F349">
         <v>306</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G349" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>43</v>
       </c>
@@ -8787,8 +9858,11 @@
       <c r="F350">
         <v>306</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G350" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>253</v>
       </c>
@@ -8807,8 +9881,11 @@
       <c r="F351">
         <v>306</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G351" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>255</v>
       </c>
@@ -8827,8 +9904,11 @@
       <c r="F352">
         <v>306</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G352" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>47</v>
       </c>
@@ -8847,8 +9927,11 @@
       <c r="F353">
         <v>306</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G353" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>213</v>
       </c>
@@ -8867,8 +9950,11 @@
       <c r="F354">
         <v>306</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G354" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>386</v>
       </c>
@@ -8887,8 +9973,11 @@
       <c r="F355">
         <v>306</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G355" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>221</v>
       </c>
@@ -8907,8 +9996,11 @@
       <c r="F356">
         <v>306</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G356" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>185</v>
       </c>
@@ -8927,8 +10019,11 @@
       <c r="F357">
         <v>306</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G357" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>293</v>
       </c>
@@ -8947,8 +10042,11 @@
       <c r="F358">
         <v>306</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G358" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>295</v>
       </c>
@@ -8967,8 +10065,11 @@
       <c r="F359">
         <v>306</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G359" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>249</v>
       </c>
@@ -8987,8 +10088,11 @@
       <c r="F360">
         <v>306</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G360" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>117</v>
       </c>
@@ -9007,8 +10111,11 @@
       <c r="F361">
         <v>309</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G361" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>396</v>
       </c>
@@ -9027,8 +10134,11 @@
       <c r="F362">
         <v>309</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G362" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>398</v>
       </c>
@@ -9047,8 +10157,11 @@
       <c r="F363">
         <v>309</v>
       </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G363" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>400</v>
       </c>
@@ -9067,8 +10180,11 @@
       <c r="F364">
         <v>309</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G364" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>123</v>
       </c>
@@ -9087,8 +10203,11 @@
       <c r="F365">
         <v>309</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G365" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>402</v>
       </c>
@@ -9107,8 +10226,11 @@
       <c r="F366">
         <v>309</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G366" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>205</v>
       </c>
@@ -9127,8 +10249,11 @@
       <c r="F367">
         <v>309</v>
       </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G367" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>209</v>
       </c>
@@ -9147,8 +10272,11 @@
       <c r="F368">
         <v>309</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G368" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>149</v>
       </c>
@@ -9167,8 +10295,11 @@
       <c r="F369">
         <v>309</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G369" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>57</v>
       </c>
@@ -9187,8 +10318,11 @@
       <c r="F370">
         <v>317</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G370" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>404</v>
       </c>
@@ -9207,8 +10341,11 @@
       <c r="F371">
         <v>317</v>
       </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G371" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>111</v>
       </c>
@@ -9227,8 +10364,11 @@
       <c r="F372">
         <v>317</v>
       </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G372" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>37</v>
       </c>
@@ -9247,8 +10387,11 @@
       <c r="F373">
         <v>317</v>
       </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G373" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>43</v>
       </c>
@@ -9267,8 +10410,11 @@
       <c r="F374">
         <v>317</v>
       </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G374" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>143</v>
       </c>
@@ -9287,8 +10433,11 @@
       <c r="F375">
         <v>317</v>
       </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G375" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>155</v>
       </c>
@@ -9307,8 +10456,11 @@
       <c r="F376">
         <v>317</v>
       </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G376" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>265</v>
       </c>
@@ -9327,8 +10479,11 @@
       <c r="F377">
         <v>317</v>
       </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G377" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>151</v>
       </c>
@@ -9347,8 +10502,11 @@
       <c r="F378">
         <v>317</v>
       </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G378" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>153</v>
       </c>
@@ -9367,8 +10525,11 @@
       <c r="F379">
         <v>317</v>
       </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G379" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>299</v>
       </c>
@@ -9387,8 +10548,11 @@
       <c r="F380">
         <v>317</v>
       </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G380" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>199</v>
       </c>
@@ -9407,8 +10571,11 @@
       <c r="F381">
         <v>317</v>
       </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G381" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>271</v>
       </c>
@@ -9427,8 +10594,11 @@
       <c r="F382">
         <v>317</v>
       </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G382" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>247</v>
       </c>
@@ -9447,8 +10617,11 @@
       <c r="F383">
         <v>317</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G383" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>249</v>
       </c>
@@ -9467,8 +10640,11 @@
       <c r="F384">
         <v>317</v>
       </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G384" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>57</v>
       </c>
@@ -9487,8 +10663,11 @@
       <c r="F385">
         <v>320</v>
       </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G385" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>61</v>
       </c>
@@ -9507,8 +10686,11 @@
       <c r="F386">
         <v>320</v>
       </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G386" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>91</v>
       </c>
@@ -9527,8 +10709,11 @@
       <c r="F387">
         <v>320</v>
       </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G387" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>93</v>
       </c>
@@ -9547,8 +10732,11 @@
       <c r="F388">
         <v>320</v>
       </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G388" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>135</v>
       </c>
@@ -9567,8 +10755,11 @@
       <c r="F389">
         <v>320</v>
       </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G389" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>133</v>
       </c>
@@ -9587,8 +10778,11 @@
       <c r="F390">
         <v>320</v>
       </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G390" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>384</v>
       </c>
@@ -9607,8 +10801,11 @@
       <c r="F391">
         <v>320</v>
       </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G391" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>53</v>
       </c>
@@ -9627,8 +10824,11 @@
       <c r="F392">
         <v>320</v>
       </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G392" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>51</v>
       </c>
@@ -9647,8 +10847,11 @@
       <c r="F393">
         <v>320</v>
       </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G393" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>219</v>
       </c>
@@ -9667,8 +10870,11 @@
       <c r="F394">
         <v>320</v>
       </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G394" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>223</v>
       </c>
@@ -9687,8 +10893,11 @@
       <c r="F395">
         <v>320</v>
       </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G395" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>406</v>
       </c>
@@ -9707,8 +10916,11 @@
       <c r="F396">
         <v>320</v>
       </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G396" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>287</v>
       </c>
@@ -9727,8 +10939,11 @@
       <c r="F397">
         <v>320</v>
       </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G397" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>408</v>
       </c>
@@ -9747,8 +10962,11 @@
       <c r="F398">
         <v>320</v>
       </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G398" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>345</v>
       </c>
@@ -9767,8 +10985,11 @@
       <c r="F399">
         <v>320</v>
       </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G399" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>199</v>
       </c>
@@ -9787,8 +11008,11 @@
       <c r="F400">
         <v>320</v>
       </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G400" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>283</v>
       </c>
@@ -9807,8 +11031,11 @@
       <c r="F401">
         <v>416</v>
       </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G401" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>410</v>
       </c>
@@ -9827,8 +11054,11 @@
       <c r="F402">
         <v>416</v>
       </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G402" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>406</v>
       </c>
@@ -9847,8 +11077,11 @@
       <c r="F403">
         <v>416</v>
       </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G403" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>412</v>
       </c>
@@ -9867,8 +11100,11 @@
       <c r="F404">
         <v>416</v>
       </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G404" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>279</v>
       </c>
@@ -9887,8 +11123,11 @@
       <c r="F405">
         <v>416</v>
       </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G405" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>247</v>
       </c>
@@ -9907,8 +11146,11 @@
       <c r="F406">
         <v>416</v>
       </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G406" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>275</v>
       </c>
@@ -9927,8 +11169,11 @@
       <c r="F407">
         <v>416</v>
       </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G407" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>249</v>
       </c>
@@ -9947,8 +11192,11 @@
       <c r="F408">
         <v>416</v>
       </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G408" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>53</v>
       </c>
@@ -9967,8 +11215,11 @@
       <c r="F409">
         <v>429</v>
       </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G409" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>51</v>
       </c>
@@ -9987,8 +11238,11 @@
       <c r="F410">
         <v>429</v>
       </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G410" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>119</v>
       </c>
@@ -10007,8 +11261,11 @@
       <c r="F411">
         <v>429</v>
       </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G411" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>205</v>
       </c>
@@ -10027,8 +11284,11 @@
       <c r="F412">
         <v>429</v>
       </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G412" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>209</v>
       </c>
@@ -10047,8 +11307,11 @@
       <c r="F413">
         <v>429</v>
       </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G413" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>211</v>
       </c>
@@ -10067,8 +11330,11 @@
       <c r="F414">
         <v>429</v>
       </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G414" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>213</v>
       </c>
@@ -10087,8 +11353,11 @@
       <c r="F415">
         <v>429</v>
       </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G415" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>414</v>
       </c>
@@ -10107,8 +11376,11 @@
       <c r="F416">
         <v>429</v>
       </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G416" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>416</v>
       </c>
@@ -10127,8 +11399,11 @@
       <c r="F417">
         <v>429</v>
       </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G417" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>219</v>
       </c>
@@ -10147,8 +11422,11 @@
       <c r="F418">
         <v>429</v>
       </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G418" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>125</v>
       </c>
@@ -10167,8 +11445,11 @@
       <c r="F419">
         <v>429</v>
       </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G419" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>201</v>
       </c>
@@ -10187,8 +11468,11 @@
       <c r="F420">
         <v>429</v>
       </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G420" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>418</v>
       </c>
@@ -10207,8 +11491,11 @@
       <c r="F421">
         <v>429</v>
       </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G421" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>215</v>
       </c>
@@ -10227,8 +11514,11 @@
       <c r="F422">
         <v>429</v>
       </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G422" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>410</v>
       </c>
@@ -10247,8 +11537,11 @@
       <c r="F423">
         <v>429</v>
       </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G423" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>149</v>
       </c>
@@ -10267,8 +11560,11 @@
       <c r="F424">
         <v>429</v>
       </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G424" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>105</v>
       </c>
@@ -10287,8 +11583,11 @@
       <c r="F425">
         <v>429</v>
       </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G425" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>285</v>
       </c>
@@ -10307,8 +11606,11 @@
       <c r="F426">
         <v>429</v>
       </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G426" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>225</v>
       </c>
@@ -10327,8 +11629,11 @@
       <c r="F427">
         <v>429</v>
       </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G427" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>283</v>
       </c>
@@ -10347,8 +11652,11 @@
       <c r="F428">
         <v>429</v>
       </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G428" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>57</v>
       </c>
@@ -10367,8 +11675,11 @@
       <c r="F429">
         <v>436</v>
       </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G429" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>6</v>
       </c>
@@ -10387,8 +11698,11 @@
       <c r="F430">
         <v>471</v>
       </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G430" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>10</v>
       </c>
@@ -10407,8 +11721,11 @@
       <c r="F431">
         <v>471</v>
       </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G431" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>12</v>
       </c>
@@ -10427,8 +11744,11 @@
       <c r="F432">
         <v>471</v>
       </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G432" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>14</v>
       </c>
@@ -10447,8 +11767,11 @@
       <c r="F433">
         <v>471</v>
       </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G433" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>109</v>
       </c>
@@ -10467,8 +11790,11 @@
       <c r="F434">
         <v>471</v>
       </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G434" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>111</v>
       </c>
@@ -10487,8 +11813,11 @@
       <c r="F435">
         <v>471</v>
       </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G435" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>362</v>
       </c>
@@ -10507,8 +11836,11 @@
       <c r="F436">
         <v>471</v>
       </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G436" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>113</v>
       </c>
@@ -10527,8 +11859,11 @@
       <c r="F437">
         <v>471</v>
       </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G437" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>32</v>
       </c>
@@ -10547,8 +11882,11 @@
       <c r="F438">
         <v>471</v>
       </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G438" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>16</v>
       </c>
@@ -10567,8 +11905,11 @@
       <c r="F439">
         <v>471</v>
       </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G439" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>30</v>
       </c>
@@ -10587,8 +11928,11 @@
       <c r="F440">
         <v>471</v>
       </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G440" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>28</v>
       </c>
@@ -10607,8 +11951,11 @@
       <c r="F441">
         <v>471</v>
       </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G441" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>420</v>
       </c>
@@ -10627,8 +11974,11 @@
       <c r="F442">
         <v>471</v>
       </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G442" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>37</v>
       </c>
@@ -10647,8 +11997,11 @@
       <c r="F443">
         <v>471</v>
       </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G443" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>127</v>
       </c>
@@ -10667,8 +12020,11 @@
       <c r="F444">
         <v>471</v>
       </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G444" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>129</v>
       </c>
@@ -10687,8 +12043,11 @@
       <c r="F445">
         <v>471</v>
       </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G445" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>364</v>
       </c>
@@ -10707,8 +12066,11 @@
       <c r="F446">
         <v>471</v>
       </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G446" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>422</v>
       </c>
@@ -10727,8 +12089,11 @@
       <c r="F447">
         <v>471</v>
       </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G447" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>424</v>
       </c>
@@ -10747,8 +12112,11 @@
       <c r="F448">
         <v>471</v>
       </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G448" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>426</v>
       </c>
@@ -10767,8 +12135,11 @@
       <c r="F449">
         <v>471</v>
       </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G449" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>321</v>
       </c>
@@ -10787,8 +12158,11 @@
       <c r="F450">
         <v>471</v>
       </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G450" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>323</v>
       </c>
@@ -10807,8 +12181,11 @@
       <c r="F451">
         <v>471</v>
       </c>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G451" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>131</v>
       </c>
@@ -10827,8 +12204,11 @@
       <c r="F452">
         <v>471</v>
       </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G452" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>133</v>
       </c>
@@ -10847,8 +12227,11 @@
       <c r="F453">
         <v>471</v>
       </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G453" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>39</v>
       </c>
@@ -10867,8 +12250,11 @@
       <c r="F454">
         <v>471</v>
       </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G454" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>135</v>
       </c>
@@ -10887,8 +12273,11 @@
       <c r="F455">
         <v>471</v>
       </c>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G455" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>428</v>
       </c>
@@ -10907,8 +12296,11 @@
       <c r="F456">
         <v>471</v>
       </c>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G456" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>137</v>
       </c>
@@ -10927,8 +12319,11 @@
       <c r="F457">
         <v>471</v>
       </c>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G457" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>139</v>
       </c>
@@ -10947,8 +12342,11 @@
       <c r="F458">
         <v>471</v>
       </c>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G458" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>241</v>
       </c>
@@ -10967,8 +12365,11 @@
       <c r="F459">
         <v>471</v>
       </c>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G459" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>430</v>
       </c>
@@ -10987,8 +12388,11 @@
       <c r="F460">
         <v>471</v>
       </c>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G460" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>41</v>
       </c>
@@ -11007,8 +12411,11 @@
       <c r="F461">
         <v>471</v>
       </c>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G461" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>141</v>
       </c>
@@ -11027,8 +12434,11 @@
       <c r="F462">
         <v>471</v>
       </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G462" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>366</v>
       </c>
@@ -11047,8 +12457,11 @@
       <c r="F463">
         <v>471</v>
       </c>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G463" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>368</v>
       </c>
@@ -11067,8 +12480,11 @@
       <c r="F464">
         <v>471</v>
       </c>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G464" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>43</v>
       </c>
@@ -11087,8 +12503,11 @@
       <c r="F465">
         <v>471</v>
       </c>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G465" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>370</v>
       </c>
@@ -11107,8 +12526,11 @@
       <c r="F466">
         <v>471</v>
       </c>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G466" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>251</v>
       </c>
@@ -11127,8 +12549,11 @@
       <c r="F467">
         <v>471</v>
       </c>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G467" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>384</v>
       </c>
@@ -11147,8 +12572,11 @@
       <c r="F468">
         <v>471</v>
       </c>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G468" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>143</v>
       </c>
@@ -11167,8 +12595,11 @@
       <c r="F469">
         <v>471</v>
       </c>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G469" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>45</v>
       </c>
@@ -11187,8 +12618,11 @@
       <c r="F470">
         <v>471</v>
       </c>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G470" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>257</v>
       </c>
@@ -11207,8 +12641,11 @@
       <c r="F471">
         <v>471</v>
       </c>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G471" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>259</v>
       </c>
@@ -11227,8 +12664,11 @@
       <c r="F472">
         <v>471</v>
       </c>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G472" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>155</v>
       </c>
@@ -11247,8 +12687,11 @@
       <c r="F473">
         <v>471</v>
       </c>
-    </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G473" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>432</v>
       </c>
@@ -11267,8 +12710,11 @@
       <c r="F474">
         <v>471</v>
       </c>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G474" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>293</v>
       </c>
@@ -11287,8 +12733,11 @@
       <c r="F475">
         <v>471</v>
       </c>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G475" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>295</v>
       </c>
@@ -11307,8 +12756,11 @@
       <c r="F476">
         <v>471</v>
       </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G476" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>57</v>
       </c>
@@ -11327,8 +12779,11 @@
       <c r="F477">
         <v>499</v>
       </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G477" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>79</v>
       </c>
@@ -11347,8 +12802,11 @@
       <c r="F478">
         <v>499</v>
       </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G478" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>93</v>
       </c>
@@ -11367,8 +12825,11 @@
       <c r="F479">
         <v>499</v>
       </c>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G479" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>434</v>
       </c>
@@ -11387,8 +12848,11 @@
       <c r="F480">
         <v>499</v>
       </c>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G480" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>436</v>
       </c>
@@ -11407,8 +12871,11 @@
       <c r="F481">
         <v>499</v>
       </c>
-    </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G481" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>438</v>
       </c>
@@ -11427,8 +12894,11 @@
       <c r="F482">
         <v>499</v>
       </c>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G482" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>440</v>
       </c>
@@ -11447,8 +12917,11 @@
       <c r="F483">
         <v>499</v>
       </c>
-    </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G483" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>442</v>
       </c>
@@ -11467,8 +12940,11 @@
       <c r="F484">
         <v>499</v>
       </c>
-    </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G484" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>119</v>
       </c>
@@ -11487,8 +12963,11 @@
       <c r="F485">
         <v>499</v>
       </c>
-    </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G485" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>201</v>
       </c>
@@ -11507,8 +12986,11 @@
       <c r="F486">
         <v>499</v>
       </c>
-    </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G486" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>205</v>
       </c>
@@ -11527,8 +13009,11 @@
       <c r="F487">
         <v>499</v>
       </c>
-    </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G487" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>444</v>
       </c>
@@ -11547,8 +13032,11 @@
       <c r="F488">
         <v>499</v>
       </c>
-    </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G488" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>53</v>
       </c>
@@ -11567,8 +13055,11 @@
       <c r="F489">
         <v>499</v>
       </c>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G489" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>388</v>
       </c>
@@ -11587,8 +13078,11 @@
       <c r="F490">
         <v>499</v>
       </c>
-    </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G490" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>231</v>
       </c>
@@ -11607,8 +13101,11 @@
       <c r="F491">
         <v>499</v>
       </c>
-    </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G491" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>446</v>
       </c>
@@ -11627,8 +13124,11 @@
       <c r="F492">
         <v>499</v>
       </c>
-    </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G492" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>447</v>
       </c>
@@ -11647,8 +13147,11 @@
       <c r="F493">
         <v>499</v>
       </c>
-    </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G493" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>449</v>
       </c>
@@ -11667,8 +13170,11 @@
       <c r="F494">
         <v>499</v>
       </c>
-    </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G494" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>408</v>
       </c>
@@ -11687,8 +13193,11 @@
       <c r="F495">
         <v>499</v>
       </c>
-    </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G495" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>165</v>
       </c>
@@ -11707,8 +13216,11 @@
       <c r="F496">
         <v>499</v>
       </c>
-    </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G496" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>119</v>
       </c>
@@ -11727,8 +13239,11 @@
       <c r="F497">
         <v>507</v>
       </c>
-    </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G497" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>149</v>
       </c>
@@ -11747,8 +13262,11 @@
       <c r="F498">
         <v>507</v>
       </c>
-    </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G498" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>341</v>
       </c>
@@ -11767,8 +13285,11 @@
       <c r="F499">
         <v>507</v>
       </c>
-    </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G499" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>16</v>
       </c>
@@ -11787,8 +13308,11 @@
       <c r="F500">
         <v>15</v>
       </c>
-    </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G500" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>28</v>
       </c>
@@ -11807,8 +13331,11 @@
       <c r="F501">
         <v>15</v>
       </c>
-    </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G501" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>451</v>
       </c>
@@ -11827,8 +13354,11 @@
       <c r="F502">
         <v>15</v>
       </c>
-    </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G502" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>129</v>
       </c>
@@ -11847,8 +13377,11 @@
       <c r="F503">
         <v>15</v>
       </c>
-    </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G503" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>321</v>
       </c>
@@ -11867,8 +13400,11 @@
       <c r="F504">
         <v>15</v>
       </c>
-    </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G504" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>131</v>
       </c>
@@ -11887,8 +13423,11 @@
       <c r="F505">
         <v>15</v>
       </c>
-    </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G505" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>39</v>
       </c>
@@ -11907,8 +13446,11 @@
       <c r="F506">
         <v>15</v>
       </c>
-    </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G506" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>135</v>
       </c>
@@ -11927,8 +13469,11 @@
       <c r="F507">
         <v>15</v>
       </c>
-    </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G507" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>139</v>
       </c>
@@ -11947,8 +13492,11 @@
       <c r="F508">
         <v>15</v>
       </c>
-    </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G508" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>430</v>
       </c>
@@ -11967,8 +13515,11 @@
       <c r="F509">
         <v>15</v>
       </c>
-    </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G509" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>41</v>
       </c>
@@ -11987,8 +13538,11 @@
       <c r="F510">
         <v>15</v>
       </c>
-    </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G510" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>141</v>
       </c>
@@ -12007,8 +13561,11 @@
       <c r="F511">
         <v>15</v>
       </c>
-    </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G511" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>43</v>
       </c>
@@ -12027,8 +13584,11 @@
       <c r="F512">
         <v>15</v>
       </c>
-    </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G512" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>251</v>
       </c>
@@ -12047,8 +13607,11 @@
       <c r="F513">
         <v>15</v>
       </c>
-    </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G513" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>143</v>
       </c>
@@ -12067,8 +13630,11 @@
       <c r="F514">
         <v>15</v>
       </c>
-    </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G514" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>253</v>
       </c>
@@ -12087,8 +13653,11 @@
       <c r="F515">
         <v>15</v>
       </c>
-    </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G515" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>45</v>
       </c>
@@ -12107,8 +13676,11 @@
       <c r="F516">
         <v>15</v>
       </c>
-    </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G516" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>255</v>
       </c>
@@ -12127,8 +13699,11 @@
       <c r="F517">
         <v>15</v>
       </c>
-    </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G517" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>453</v>
       </c>
@@ -12147,8 +13722,11 @@
       <c r="F518">
         <v>15</v>
       </c>
-    </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G518" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>455</v>
       </c>
@@ -12167,8 +13745,11 @@
       <c r="F519">
         <v>15</v>
       </c>
-    </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G519" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>178</v>
       </c>
@@ -12187,8 +13768,11 @@
       <c r="F520">
         <v>15</v>
       </c>
-    </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G520" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>180</v>
       </c>
@@ -12207,8 +13791,11 @@
       <c r="F521">
         <v>15</v>
       </c>
-    </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G521" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>187</v>
       </c>
@@ -12227,8 +13814,11 @@
       <c r="F522">
         <v>15</v>
       </c>
-    </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G522" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>189</v>
       </c>
@@ -12247,8 +13837,11 @@
       <c r="F523">
         <v>15</v>
       </c>
-    </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G523" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>199</v>
       </c>
@@ -12267,8 +13860,11 @@
       <c r="F524">
         <v>15</v>
       </c>
-    </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G524" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>271</v>
       </c>
@@ -12287,8 +13883,11 @@
       <c r="F525">
         <v>15</v>
       </c>
-    </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G525" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>247</v>
       </c>
@@ -12307,8 +13906,11 @@
       <c r="F526">
         <v>15</v>
       </c>
-    </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G526" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>275</v>
       </c>
@@ -12327,8 +13929,11 @@
       <c r="F527">
         <v>15</v>
       </c>
-    </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G527" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>249</v>
       </c>
@@ -12347,8 +13952,11 @@
       <c r="F528">
         <v>15</v>
       </c>
-    </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G528" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>107</v>
       </c>
@@ -12367,8 +13975,11 @@
       <c r="F529">
         <v>82</v>
       </c>
-    </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G529" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>6</v>
       </c>
@@ -12387,8 +13998,11 @@
       <c r="F530">
         <v>82</v>
       </c>
-    </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G530" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>129</v>
       </c>
@@ -12407,8 +14021,11 @@
       <c r="F531">
         <v>82</v>
       </c>
-    </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G531" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>364</v>
       </c>
@@ -12427,8 +14044,11 @@
       <c r="F532">
         <v>82</v>
       </c>
-    </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G532" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>131</v>
       </c>
@@ -12447,8 +14067,11 @@
       <c r="F533">
         <v>82</v>
       </c>
-    </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G533" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>39</v>
       </c>
@@ -12467,8 +14090,11 @@
       <c r="F534">
         <v>82</v>
       </c>
-    </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G534" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>135</v>
       </c>
@@ -12487,8 +14113,11 @@
       <c r="F535">
         <v>82</v>
       </c>
-    </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G535" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>139</v>
       </c>
@@ -12507,8 +14136,11 @@
       <c r="F536">
         <v>82</v>
       </c>
-    </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G536" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>241</v>
       </c>
@@ -12527,8 +14159,11 @@
       <c r="F537">
         <v>82</v>
       </c>
-    </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G537" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>41</v>
       </c>
@@ -12547,8 +14182,11 @@
       <c r="F538">
         <v>82</v>
       </c>
-    </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G538" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>251</v>
       </c>
@@ -12567,8 +14205,11 @@
       <c r="F539">
         <v>82</v>
       </c>
-    </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G539" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>253</v>
       </c>
@@ -12587,8 +14228,11 @@
       <c r="F540">
         <v>82</v>
       </c>
-    </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G540" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>45</v>
       </c>
@@ -12607,8 +14251,11 @@
       <c r="F541">
         <v>82</v>
       </c>
-    </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G541" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>47</v>
       </c>
@@ -12627,8 +14274,11 @@
       <c r="F542">
         <v>82</v>
       </c>
-    </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G542" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>275</v>
       </c>
@@ -12647,8 +14297,11 @@
       <c r="F543">
         <v>82</v>
       </c>
-    </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G543" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>249</v>
       </c>
@@ -12667,8 +14320,11 @@
       <c r="F544">
         <v>82</v>
       </c>
-    </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G544" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>57</v>
       </c>
@@ -12687,8 +14343,11 @@
       <c r="F545">
         <v>86</v>
       </c>
-    </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G545" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>237</v>
       </c>
@@ -12707,8 +14366,11 @@
       <c r="F546">
         <v>86</v>
       </c>
-    </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G546" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>105</v>
       </c>
@@ -12727,8 +14389,11 @@
       <c r="F547">
         <v>86</v>
       </c>
-    </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G547" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>6</v>
       </c>
@@ -12747,8 +14412,11 @@
       <c r="F548">
         <v>86</v>
       </c>
-    </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G548" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>37</v>
       </c>
@@ -12767,8 +14435,11 @@
       <c r="F549">
         <v>86</v>
       </c>
-    </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G549" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>372</v>
       </c>
@@ -12787,8 +14458,11 @@
       <c r="F550">
         <v>86</v>
       </c>
-    </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G550" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>123</v>
       </c>
@@ -12807,8 +14481,11 @@
       <c r="F551">
         <v>86</v>
       </c>
-    </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G551" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>127</v>
       </c>
@@ -12827,8 +14504,11 @@
       <c r="F552">
         <v>86</v>
       </c>
-    </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G552" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>364</v>
       </c>
@@ -12847,8 +14527,11 @@
       <c r="F553">
         <v>86</v>
       </c>
-    </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G553" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>321</v>
       </c>
@@ -12867,8 +14550,11 @@
       <c r="F554">
         <v>86</v>
       </c>
-    </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G554" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>323</v>
       </c>
@@ -12887,8 +14573,11 @@
       <c r="F555">
         <v>86</v>
       </c>
-    </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G555" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>39</v>
       </c>
@@ -12907,8 +14596,11 @@
       <c r="F556">
         <v>86</v>
       </c>
-    </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G556" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>368</v>
       </c>
@@ -12927,8 +14619,11 @@
       <c r="F557">
         <v>86</v>
       </c>
-    </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G557" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>43</v>
       </c>
@@ -12947,8 +14642,11 @@
       <c r="F558">
         <v>86</v>
       </c>
-    </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G558" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>45</v>
       </c>
@@ -12967,8 +14665,11 @@
       <c r="F559">
         <v>86</v>
       </c>
-    </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G559" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>145</v>
       </c>
@@ -12987,8 +14688,11 @@
       <c r="F560">
         <v>86</v>
       </c>
-    </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G560" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>329</v>
       </c>
@@ -13007,8 +14711,11 @@
       <c r="F561">
         <v>86</v>
       </c>
-    </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G561" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>209</v>
       </c>
@@ -13027,8 +14734,11 @@
       <c r="F562">
         <v>86</v>
       </c>
-    </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G562" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>211</v>
       </c>
@@ -13047,8 +14757,11 @@
       <c r="F563">
         <v>86</v>
       </c>
-    </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G563" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>350</v>
       </c>
@@ -13067,8 +14780,11 @@
       <c r="F564">
         <v>86</v>
       </c>
-    </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G564" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>51</v>
       </c>
@@ -13087,8 +14803,11 @@
       <c r="F565">
         <v>86</v>
       </c>
-    </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G565" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>331</v>
       </c>
@@ -13107,8 +14826,11 @@
       <c r="F566">
         <v>86</v>
       </c>
-    </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G566" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>337</v>
       </c>
@@ -13127,8 +14849,11 @@
       <c r="F567">
         <v>86</v>
       </c>
-    </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G567" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>416</v>
       </c>
@@ -13147,8 +14872,11 @@
       <c r="F568">
         <v>86</v>
       </c>
-    </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G568" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>219</v>
       </c>
@@ -13167,8 +14895,11 @@
       <c r="F569">
         <v>86</v>
       </c>
-    </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G569" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>457</v>
       </c>
@@ -13187,8 +14918,11 @@
       <c r="F570">
         <v>86</v>
       </c>
-    </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G570" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>458</v>
       </c>
@@ -13207,8 +14941,11 @@
       <c r="F571">
         <v>86</v>
       </c>
-    </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G571" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>460</v>
       </c>
@@ -13227,8 +14964,11 @@
       <c r="F572">
         <v>86</v>
       </c>
-    </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G572" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>199</v>
       </c>
@@ -13247,8 +14987,11 @@
       <c r="F573">
         <v>86</v>
       </c>
-    </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G573" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>271</v>
       </c>
@@ -13267,8 +15010,11 @@
       <c r="F574">
         <v>86</v>
       </c>
-    </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G574" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>247</v>
       </c>
@@ -13287,8 +15033,11 @@
       <c r="F575">
         <v>86</v>
       </c>
-    </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G575" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>249</v>
       </c>
@@ -13307,8 +15056,11 @@
       <c r="F576">
         <v>86</v>
       </c>
-    </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G576" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>352</v>
       </c>
@@ -13327,8 +15079,11 @@
       <c r="F577">
         <v>104</v>
       </c>
-    </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G577" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>79</v>
       </c>
@@ -13347,9 +15102,16 @@
       <c r="F578">
         <v>104</v>
       </c>
+      <c r="G578" t="s">
+        <v>464</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A578" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G578" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/cmd.xlsx
+++ b/cmd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amine\Desktop\New folder (5)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE09E7A-C62F-4F6D-A0A3-7698551954F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60115102-D745-4369-9BBF-6E8E51B61278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="160" windowWidth="18900" windowHeight="9920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="463">
   <si>
     <t>Reference Article</t>
   </si>
@@ -1412,12 +1412,6 @@
   </si>
   <si>
     <t>is he vip</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -1798,11 +1792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:G578"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1835,7 +1828,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1854,11 +1847,11 @@
       <c r="F2">
         <v>517</v>
       </c>
-      <c r="G2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1877,11 +1870,11 @@
       <c r="F3">
         <v>517</v>
       </c>
-      <c r="G3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1900,11 +1893,11 @@
       <c r="F4">
         <v>517</v>
       </c>
-      <c r="G4" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1923,11 +1916,11 @@
       <c r="F5">
         <v>517</v>
       </c>
-      <c r="G5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1946,11 +1939,11 @@
       <c r="F6">
         <v>517</v>
       </c>
-      <c r="G6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1969,11 +1962,11 @@
       <c r="F7">
         <v>517</v>
       </c>
-      <c r="G7" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1992,11 +1985,11 @@
       <c r="F8">
         <v>517</v>
       </c>
-      <c r="G8" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2015,11 +2008,11 @@
       <c r="F9">
         <v>517</v>
       </c>
-      <c r="G9" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2038,11 +2031,11 @@
       <c r="F10">
         <v>517</v>
       </c>
-      <c r="G10" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2061,11 +2054,11 @@
       <c r="F11">
         <v>517</v>
       </c>
-      <c r="G11" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2084,11 +2077,11 @@
       <c r="F12">
         <v>517</v>
       </c>
-      <c r="G12" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2107,11 +2100,11 @@
       <c r="F13">
         <v>517</v>
       </c>
-      <c r="G13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -2130,11 +2123,11 @@
       <c r="F14">
         <v>517</v>
       </c>
-      <c r="G14" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -2153,11 +2146,11 @@
       <c r="F15">
         <v>517</v>
       </c>
-      <c r="G15" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -2176,11 +2169,11 @@
       <c r="F16">
         <v>517</v>
       </c>
-      <c r="G16" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2199,11 +2192,11 @@
       <c r="F17">
         <v>517</v>
       </c>
-      <c r="G17" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2222,11 +2215,11 @@
       <c r="F18">
         <v>517</v>
       </c>
-      <c r="G18" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2245,11 +2238,11 @@
       <c r="F19">
         <v>517</v>
       </c>
-      <c r="G19" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2268,11 +2261,11 @@
       <c r="F20">
         <v>517</v>
       </c>
-      <c r="G20" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2291,11 +2284,11 @@
       <c r="F21">
         <v>517</v>
       </c>
-      <c r="G21" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -2314,11 +2307,11 @@
       <c r="F22">
         <v>517</v>
       </c>
-      <c r="G22" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -2337,11 +2330,11 @@
       <c r="F23">
         <v>517</v>
       </c>
-      <c r="G23" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -2360,11 +2353,11 @@
       <c r="F24">
         <v>517</v>
       </c>
-      <c r="G24" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2383,11 +2376,11 @@
       <c r="F25">
         <v>517</v>
       </c>
-      <c r="G25" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2406,11 +2399,11 @@
       <c r="F26">
         <v>517</v>
       </c>
-      <c r="G26" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -2429,8 +2422,8 @@
       <c r="F27">
         <v>517</v>
       </c>
-      <c r="G27" t="s">
-        <v>463</v>
+      <c r="G27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -2452,8 +2445,8 @@
       <c r="F28">
         <v>523</v>
       </c>
-      <c r="G28" t="s">
-        <v>464</v>
+      <c r="G28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -2475,8 +2468,8 @@
       <c r="F29">
         <v>523</v>
       </c>
-      <c r="G29" t="s">
-        <v>464</v>
+      <c r="G29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -2498,8 +2491,8 @@
       <c r="F30">
         <v>523</v>
       </c>
-      <c r="G30" t="s">
-        <v>464</v>
+      <c r="G30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -2521,8 +2514,8 @@
       <c r="F31">
         <v>523</v>
       </c>
-      <c r="G31" t="s">
-        <v>464</v>
+      <c r="G31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -2544,8 +2537,8 @@
       <c r="F32">
         <v>523</v>
       </c>
-      <c r="G32" t="s">
-        <v>464</v>
+      <c r="G32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -2567,8 +2560,8 @@
       <c r="F33">
         <v>523</v>
       </c>
-      <c r="G33" t="s">
-        <v>464</v>
+      <c r="G33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -2590,8 +2583,8 @@
       <c r="F34">
         <v>523</v>
       </c>
-      <c r="G34" t="s">
-        <v>464</v>
+      <c r="G34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2613,8 +2606,8 @@
       <c r="F35">
         <v>523</v>
       </c>
-      <c r="G35" t="s">
-        <v>464</v>
+      <c r="G35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2636,8 +2629,8 @@
       <c r="F36">
         <v>523</v>
       </c>
-      <c r="G36" t="s">
-        <v>464</v>
+      <c r="G36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -2659,8 +2652,8 @@
       <c r="F37">
         <v>523</v>
       </c>
-      <c r="G37" t="s">
-        <v>464</v>
+      <c r="G37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -2682,8 +2675,8 @@
       <c r="F38">
         <v>523</v>
       </c>
-      <c r="G38" t="s">
-        <v>464</v>
+      <c r="G38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -2705,8 +2698,8 @@
       <c r="F39">
         <v>523</v>
       </c>
-      <c r="G39" t="s">
-        <v>464</v>
+      <c r="G39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -2728,8 +2721,8 @@
       <c r="F40">
         <v>523</v>
       </c>
-      <c r="G40" t="s">
-        <v>464</v>
+      <c r="G40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -2751,8 +2744,8 @@
       <c r="F41">
         <v>523</v>
       </c>
-      <c r="G41" t="s">
-        <v>464</v>
+      <c r="G41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -2774,8 +2767,8 @@
       <c r="F42">
         <v>523</v>
       </c>
-      <c r="G42" t="s">
-        <v>464</v>
+      <c r="G42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -2797,8 +2790,8 @@
       <c r="F43">
         <v>523</v>
       </c>
-      <c r="G43" t="s">
-        <v>464</v>
+      <c r="G43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2820,8 +2813,8 @@
       <c r="F44">
         <v>523</v>
       </c>
-      <c r="G44" t="s">
-        <v>464</v>
+      <c r="G44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -2843,8 +2836,8 @@
       <c r="F45">
         <v>523</v>
       </c>
-      <c r="G45" t="s">
-        <v>464</v>
+      <c r="G45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -2866,8 +2859,8 @@
       <c r="F46">
         <v>523</v>
       </c>
-      <c r="G46" t="s">
-        <v>464</v>
+      <c r="G46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -2889,8 +2882,8 @@
       <c r="F47">
         <v>523</v>
       </c>
-      <c r="G47" t="s">
-        <v>464</v>
+      <c r="G47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -2912,8 +2905,8 @@
       <c r="F48">
         <v>523</v>
       </c>
-      <c r="G48" t="s">
-        <v>464</v>
+      <c r="G48">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -2935,8 +2928,8 @@
       <c r="F49">
         <v>523</v>
       </c>
-      <c r="G49" t="s">
-        <v>464</v>
+      <c r="G49">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -2958,8 +2951,8 @@
       <c r="F50">
         <v>523</v>
       </c>
-      <c r="G50" t="s">
-        <v>464</v>
+      <c r="G50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -2981,8 +2974,8 @@
       <c r="F51">
         <v>523</v>
       </c>
-      <c r="G51" t="s">
-        <v>464</v>
+      <c r="G51">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -3004,8 +2997,8 @@
       <c r="F52">
         <v>523</v>
       </c>
-      <c r="G52" t="s">
-        <v>464</v>
+      <c r="G52">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -3027,8 +3020,8 @@
       <c r="F53">
         <v>523</v>
       </c>
-      <c r="G53" t="s">
-        <v>464</v>
+      <c r="G53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -3050,8 +3043,8 @@
       <c r="F54">
         <v>523</v>
       </c>
-      <c r="G54" t="s">
-        <v>464</v>
+      <c r="G54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -3073,8 +3066,8 @@
       <c r="F55">
         <v>523</v>
       </c>
-      <c r="G55" t="s">
-        <v>464</v>
+      <c r="G55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -3096,8 +3089,8 @@
       <c r="F56">
         <v>523</v>
       </c>
-      <c r="G56" t="s">
-        <v>464</v>
+      <c r="G56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -3119,8 +3112,8 @@
       <c r="F57">
         <v>523</v>
       </c>
-      <c r="G57" t="s">
-        <v>464</v>
+      <c r="G57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -3142,8 +3135,8 @@
       <c r="F58">
         <v>523</v>
       </c>
-      <c r="G58" t="s">
-        <v>464</v>
+      <c r="G58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -3165,8 +3158,8 @@
       <c r="F59">
         <v>523</v>
       </c>
-      <c r="G59" t="s">
-        <v>464</v>
+      <c r="G59">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -3188,8 +3181,8 @@
       <c r="F60">
         <v>523</v>
       </c>
-      <c r="G60" t="s">
-        <v>464</v>
+      <c r="G60">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -3211,8 +3204,8 @@
       <c r="F61">
         <v>523</v>
       </c>
-      <c r="G61" t="s">
-        <v>464</v>
+      <c r="G61">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -3234,8 +3227,8 @@
       <c r="F62">
         <v>523</v>
       </c>
-      <c r="G62" t="s">
-        <v>464</v>
+      <c r="G62">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -3257,8 +3250,8 @@
       <c r="F63">
         <v>523</v>
       </c>
-      <c r="G63" t="s">
-        <v>464</v>
+      <c r="G63">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -3280,8 +3273,8 @@
       <c r="F64">
         <v>523</v>
       </c>
-      <c r="G64" t="s">
-        <v>464</v>
+      <c r="G64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -3303,8 +3296,8 @@
       <c r="F65">
         <v>523</v>
       </c>
-      <c r="G65" t="s">
-        <v>464</v>
+      <c r="G65">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -3326,8 +3319,8 @@
       <c r="F66">
         <v>523</v>
       </c>
-      <c r="G66" t="s">
-        <v>464</v>
+      <c r="G66">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -3349,8 +3342,8 @@
       <c r="F67">
         <v>523</v>
       </c>
-      <c r="G67" t="s">
-        <v>464</v>
+      <c r="G67">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -3372,8 +3365,8 @@
       <c r="F68">
         <v>523</v>
       </c>
-      <c r="G68" t="s">
-        <v>464</v>
+      <c r="G68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -3395,8 +3388,8 @@
       <c r="F69">
         <v>523</v>
       </c>
-      <c r="G69" t="s">
-        <v>464</v>
+      <c r="G69">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -3418,8 +3411,8 @@
       <c r="F70">
         <v>523</v>
       </c>
-      <c r="G70" t="s">
-        <v>464</v>
+      <c r="G70">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -3441,8 +3434,8 @@
       <c r="F71">
         <v>523</v>
       </c>
-      <c r="G71" t="s">
-        <v>464</v>
+      <c r="G71">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -3464,8 +3457,8 @@
       <c r="F72">
         <v>523</v>
       </c>
-      <c r="G72" t="s">
-        <v>464</v>
+      <c r="G72">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -3487,8 +3480,8 @@
       <c r="F73">
         <v>523</v>
       </c>
-      <c r="G73" t="s">
-        <v>464</v>
+      <c r="G73">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -3510,8 +3503,8 @@
       <c r="F74">
         <v>523</v>
       </c>
-      <c r="G74" t="s">
-        <v>464</v>
+      <c r="G74">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -3533,8 +3526,8 @@
       <c r="F75">
         <v>523</v>
       </c>
-      <c r="G75" t="s">
-        <v>464</v>
+      <c r="G75">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -3556,8 +3549,8 @@
       <c r="F76">
         <v>523</v>
       </c>
-      <c r="G76" t="s">
-        <v>464</v>
+      <c r="G76">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -3579,8 +3572,8 @@
       <c r="F77">
         <v>523</v>
       </c>
-      <c r="G77" t="s">
-        <v>464</v>
+      <c r="G77">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -3602,8 +3595,8 @@
       <c r="F78">
         <v>523</v>
       </c>
-      <c r="G78" t="s">
-        <v>464</v>
+      <c r="G78">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -3625,8 +3618,8 @@
       <c r="F79">
         <v>523</v>
       </c>
-      <c r="G79" t="s">
-        <v>464</v>
+      <c r="G79">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -3648,8 +3641,8 @@
       <c r="F80">
         <v>523</v>
       </c>
-      <c r="G80" t="s">
-        <v>464</v>
+      <c r="G80">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
@@ -3671,8 +3664,8 @@
       <c r="F81">
         <v>523</v>
       </c>
-      <c r="G81" t="s">
-        <v>464</v>
+      <c r="G81">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -3694,8 +3687,8 @@
       <c r="F82">
         <v>523</v>
       </c>
-      <c r="G82" t="s">
-        <v>464</v>
+      <c r="G82">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -3717,8 +3710,8 @@
       <c r="F83">
         <v>523</v>
       </c>
-      <c r="G83" t="s">
-        <v>464</v>
+      <c r="G83">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -3740,8 +3733,8 @@
       <c r="F84">
         <v>523</v>
       </c>
-      <c r="G84" t="s">
-        <v>464</v>
+      <c r="G84">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -3763,8 +3756,8 @@
       <c r="F85">
         <v>523</v>
       </c>
-      <c r="G85" t="s">
-        <v>464</v>
+      <c r="G85">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -3786,8 +3779,8 @@
       <c r="F86">
         <v>523</v>
       </c>
-      <c r="G86" t="s">
-        <v>464</v>
+      <c r="G86">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -3809,8 +3802,8 @@
       <c r="F87">
         <v>523</v>
       </c>
-      <c r="G87" t="s">
-        <v>464</v>
+      <c r="G87">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -3832,8 +3825,8 @@
       <c r="F88">
         <v>523</v>
       </c>
-      <c r="G88" t="s">
-        <v>464</v>
+      <c r="G88">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -3855,8 +3848,8 @@
       <c r="F89">
         <v>523</v>
       </c>
-      <c r="G89" t="s">
-        <v>464</v>
+      <c r="G89">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -3878,8 +3871,8 @@
       <c r="F90">
         <v>523</v>
       </c>
-      <c r="G90" t="s">
-        <v>464</v>
+      <c r="G90">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -3901,8 +3894,8 @@
       <c r="F91">
         <v>523</v>
       </c>
-      <c r="G91" t="s">
-        <v>464</v>
+      <c r="G91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -3924,8 +3917,8 @@
       <c r="F92">
         <v>523</v>
       </c>
-      <c r="G92" t="s">
-        <v>464</v>
+      <c r="G92">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -3947,8 +3940,8 @@
       <c r="F93">
         <v>523</v>
       </c>
-      <c r="G93" t="s">
-        <v>464</v>
+      <c r="G93">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -3970,8 +3963,8 @@
       <c r="F94">
         <v>523</v>
       </c>
-      <c r="G94" t="s">
-        <v>464</v>
+      <c r="G94">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
@@ -3993,8 +3986,8 @@
       <c r="F95">
         <v>523</v>
       </c>
-      <c r="G95" t="s">
-        <v>464</v>
+      <c r="G95">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -4016,8 +4009,8 @@
       <c r="F96">
         <v>523</v>
       </c>
-      <c r="G96" t="s">
-        <v>464</v>
+      <c r="G96">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -4039,8 +4032,8 @@
       <c r="F97">
         <v>523</v>
       </c>
-      <c r="G97" t="s">
-        <v>464</v>
+      <c r="G97">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -4062,8 +4055,8 @@
       <c r="F98">
         <v>523</v>
       </c>
-      <c r="G98" t="s">
-        <v>464</v>
+      <c r="G98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -4085,8 +4078,8 @@
       <c r="F99">
         <v>523</v>
       </c>
-      <c r="G99" t="s">
-        <v>464</v>
+      <c r="G99">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -4108,8 +4101,8 @@
       <c r="F100">
         <v>523</v>
       </c>
-      <c r="G100" t="s">
-        <v>464</v>
+      <c r="G100">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
@@ -4131,8 +4124,8 @@
       <c r="F101">
         <v>523</v>
       </c>
-      <c r="G101" t="s">
-        <v>464</v>
+      <c r="G101">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -4154,8 +4147,8 @@
       <c r="F102">
         <v>523</v>
       </c>
-      <c r="G102" t="s">
-        <v>464</v>
+      <c r="G102">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
@@ -4177,8 +4170,8 @@
       <c r="F103">
         <v>523</v>
       </c>
-      <c r="G103" t="s">
-        <v>464</v>
+      <c r="G103">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -4200,8 +4193,8 @@
       <c r="F104">
         <v>523</v>
       </c>
-      <c r="G104" t="s">
-        <v>464</v>
+      <c r="G104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
@@ -4223,8 +4216,8 @@
       <c r="F105">
         <v>523</v>
       </c>
-      <c r="G105" t="s">
-        <v>464</v>
+      <c r="G105">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -4246,8 +4239,8 @@
       <c r="F106">
         <v>523</v>
       </c>
-      <c r="G106" t="s">
-        <v>464</v>
+      <c r="G106">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -4269,8 +4262,8 @@
       <c r="F107">
         <v>523</v>
       </c>
-      <c r="G107" t="s">
-        <v>464</v>
+      <c r="G107">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -4292,8 +4285,8 @@
       <c r="F108">
         <v>535</v>
       </c>
-      <c r="G108" t="s">
-        <v>464</v>
+      <c r="G108">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
@@ -4315,8 +4308,8 @@
       <c r="F109">
         <v>535</v>
       </c>
-      <c r="G109" t="s">
-        <v>464</v>
+      <c r="G109">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
@@ -4338,8 +4331,8 @@
       <c r="F110">
         <v>535</v>
       </c>
-      <c r="G110" t="s">
-        <v>464</v>
+      <c r="G110">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -4361,8 +4354,8 @@
       <c r="F111">
         <v>535</v>
       </c>
-      <c r="G111" t="s">
-        <v>464</v>
+      <c r="G111">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
@@ -4384,8 +4377,8 @@
       <c r="F112">
         <v>535</v>
       </c>
-      <c r="G112" t="s">
-        <v>464</v>
+      <c r="G112">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
@@ -4407,8 +4400,8 @@
       <c r="F113">
         <v>535</v>
       </c>
-      <c r="G113" t="s">
-        <v>464</v>
+      <c r="G113">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
@@ -4430,8 +4423,8 @@
       <c r="F114">
         <v>535</v>
       </c>
-      <c r="G114" t="s">
-        <v>464</v>
+      <c r="G114">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
@@ -4453,8 +4446,8 @@
       <c r="F115">
         <v>535</v>
       </c>
-      <c r="G115" t="s">
-        <v>464</v>
+      <c r="G115">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
@@ -4476,8 +4469,8 @@
       <c r="F116">
         <v>535</v>
       </c>
-      <c r="G116" t="s">
-        <v>464</v>
+      <c r="G116">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
@@ -4499,8 +4492,8 @@
       <c r="F117">
         <v>535</v>
       </c>
-      <c r="G117" t="s">
-        <v>464</v>
+      <c r="G117">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
@@ -4522,8 +4515,8 @@
       <c r="F118">
         <v>535</v>
       </c>
-      <c r="G118" t="s">
-        <v>464</v>
+      <c r="G118">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
@@ -4545,8 +4538,8 @@
       <c r="F119">
         <v>535</v>
       </c>
-      <c r="G119" t="s">
-        <v>464</v>
+      <c r="G119">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -4568,8 +4561,8 @@
       <c r="F120">
         <v>535</v>
       </c>
-      <c r="G120" t="s">
-        <v>464</v>
+      <c r="G120">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
@@ -4591,8 +4584,8 @@
       <c r="F121">
         <v>535</v>
       </c>
-      <c r="G121" t="s">
-        <v>464</v>
+      <c r="G121">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
@@ -4614,8 +4607,8 @@
       <c r="F122">
         <v>535</v>
       </c>
-      <c r="G122" t="s">
-        <v>464</v>
+      <c r="G122">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
@@ -4637,8 +4630,8 @@
       <c r="F123">
         <v>535</v>
       </c>
-      <c r="G123" t="s">
-        <v>464</v>
+      <c r="G123">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
@@ -4660,8 +4653,8 @@
       <c r="F124">
         <v>535</v>
       </c>
-      <c r="G124" t="s">
-        <v>464</v>
+      <c r="G124">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
@@ -4683,8 +4676,8 @@
       <c r="F125">
         <v>535</v>
       </c>
-      <c r="G125" t="s">
-        <v>464</v>
+      <c r="G125">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
@@ -4706,8 +4699,8 @@
       <c r="F126">
         <v>535</v>
       </c>
-      <c r="G126" t="s">
-        <v>464</v>
+      <c r="G126">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
@@ -4729,8 +4722,8 @@
       <c r="F127">
         <v>535</v>
       </c>
-      <c r="G127" t="s">
-        <v>464</v>
+      <c r="G127">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
@@ -4752,11 +4745,11 @@
       <c r="F128">
         <v>535</v>
       </c>
-      <c r="G128" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>233</v>
       </c>
@@ -4775,11 +4768,11 @@
       <c r="F129">
         <v>538</v>
       </c>
-      <c r="G129" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>235</v>
       </c>
@@ -4798,11 +4791,11 @@
       <c r="F130">
         <v>538</v>
       </c>
-      <c r="G130" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>237</v>
       </c>
@@ -4821,11 +4814,11 @@
       <c r="F131">
         <v>538</v>
       </c>
-      <c r="G131" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>239</v>
       </c>
@@ -4844,11 +4837,11 @@
       <c r="F132">
         <v>538</v>
       </c>
-      <c r="G132" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>129</v>
       </c>
@@ -4867,11 +4860,11 @@
       <c r="F133">
         <v>538</v>
       </c>
-      <c r="G133" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -4890,11 +4883,11 @@
       <c r="F134">
         <v>538</v>
       </c>
-      <c r="G134" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -4913,11 +4906,11 @@
       <c r="F135">
         <v>538</v>
       </c>
-      <c r="G135" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>241</v>
       </c>
@@ -4936,11 +4929,11 @@
       <c r="F136">
         <v>538</v>
       </c>
-      <c r="G136" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>45</v>
       </c>
@@ -4959,11 +4952,11 @@
       <c r="F137">
         <v>538</v>
       </c>
-      <c r="G137" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>243</v>
       </c>
@@ -4982,11 +4975,11 @@
       <c r="F138">
         <v>538</v>
       </c>
-      <c r="G138" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>245</v>
       </c>
@@ -5005,11 +4998,11 @@
       <c r="F139">
         <v>538</v>
       </c>
-      <c r="G139" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>185</v>
       </c>
@@ -5028,11 +5021,11 @@
       <c r="F140">
         <v>538</v>
       </c>
-      <c r="G140" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>247</v>
       </c>
@@ -5051,11 +5044,11 @@
       <c r="F141">
         <v>538</v>
       </c>
-      <c r="G141" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>249</v>
       </c>
@@ -5074,8 +5067,8 @@
       <c r="F142">
         <v>538</v>
       </c>
-      <c r="G142" t="s">
-        <v>463</v>
+      <c r="G142">
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
@@ -5097,8 +5090,8 @@
       <c r="F143">
         <v>540</v>
       </c>
-      <c r="G143" t="s">
-        <v>464</v>
+      <c r="G143">
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
@@ -5120,8 +5113,8 @@
       <c r="F144">
         <v>540</v>
       </c>
-      <c r="G144" t="s">
-        <v>464</v>
+      <c r="G144">
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
@@ -5143,8 +5136,8 @@
       <c r="F145">
         <v>540</v>
       </c>
-      <c r="G145" t="s">
-        <v>464</v>
+      <c r="G145">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
@@ -5166,8 +5159,8 @@
       <c r="F146">
         <v>540</v>
       </c>
-      <c r="G146" t="s">
-        <v>464</v>
+      <c r="G146">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
@@ -5189,8 +5182,8 @@
       <c r="F147">
         <v>540</v>
       </c>
-      <c r="G147" t="s">
-        <v>464</v>
+      <c r="G147">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
@@ -5212,8 +5205,8 @@
       <c r="F148">
         <v>540</v>
       </c>
-      <c r="G148" t="s">
-        <v>464</v>
+      <c r="G148">
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
@@ -5235,8 +5228,8 @@
       <c r="F149">
         <v>540</v>
       </c>
-      <c r="G149" t="s">
-        <v>464</v>
+      <c r="G149">
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
@@ -5258,8 +5251,8 @@
       <c r="F150">
         <v>540</v>
       </c>
-      <c r="G150" t="s">
-        <v>464</v>
+      <c r="G150">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
@@ -5281,8 +5274,8 @@
       <c r="F151">
         <v>540</v>
       </c>
-      <c r="G151" t="s">
-        <v>464</v>
+      <c r="G151">
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
@@ -5304,8 +5297,8 @@
       <c r="F152">
         <v>540</v>
       </c>
-      <c r="G152" t="s">
-        <v>464</v>
+      <c r="G152">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
@@ -5327,8 +5320,8 @@
       <c r="F153">
         <v>540</v>
       </c>
-      <c r="G153" t="s">
-        <v>464</v>
+      <c r="G153">
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
@@ -5350,8 +5343,8 @@
       <c r="F154">
         <v>540</v>
       </c>
-      <c r="G154" t="s">
-        <v>464</v>
+      <c r="G154">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
@@ -5373,8 +5366,8 @@
       <c r="F155">
         <v>540</v>
       </c>
-      <c r="G155" t="s">
-        <v>464</v>
+      <c r="G155">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
@@ -5396,8 +5389,8 @@
       <c r="F156">
         <v>540</v>
       </c>
-      <c r="G156" t="s">
-        <v>464</v>
+      <c r="G156">
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
@@ -5419,8 +5412,8 @@
       <c r="F157">
         <v>540</v>
       </c>
-      <c r="G157" t="s">
-        <v>464</v>
+      <c r="G157">
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
@@ -5442,8 +5435,8 @@
       <c r="F158">
         <v>540</v>
       </c>
-      <c r="G158" t="s">
-        <v>464</v>
+      <c r="G158">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
@@ -5465,8 +5458,8 @@
       <c r="F159">
         <v>540</v>
       </c>
-      <c r="G159" t="s">
-        <v>464</v>
+      <c r="G159">
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
@@ -5488,8 +5481,8 @@
       <c r="F160">
         <v>540</v>
       </c>
-      <c r="G160" t="s">
-        <v>464</v>
+      <c r="G160">
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
@@ -5511,8 +5504,8 @@
       <c r="F161">
         <v>540</v>
       </c>
-      <c r="G161" t="s">
-        <v>464</v>
+      <c r="G161">
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
@@ -5534,8 +5527,8 @@
       <c r="F162">
         <v>540</v>
       </c>
-      <c r="G162" t="s">
-        <v>464</v>
+      <c r="G162">
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
@@ -5557,8 +5550,8 @@
       <c r="F163">
         <v>540</v>
       </c>
-      <c r="G163" t="s">
-        <v>464</v>
+      <c r="G163">
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
@@ -5580,8 +5573,8 @@
       <c r="F164">
         <v>540</v>
       </c>
-      <c r="G164" t="s">
-        <v>464</v>
+      <c r="G164">
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
@@ -5603,8 +5596,8 @@
       <c r="F165">
         <v>540</v>
       </c>
-      <c r="G165" t="s">
-        <v>464</v>
+      <c r="G165">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
@@ -5626,8 +5619,8 @@
       <c r="F166">
         <v>540</v>
       </c>
-      <c r="G166" t="s">
-        <v>464</v>
+      <c r="G166">
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
@@ -5649,8 +5642,8 @@
       <c r="F167">
         <v>540</v>
       </c>
-      <c r="G167" t="s">
-        <v>464</v>
+      <c r="G167">
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
@@ -5672,8 +5665,8 @@
       <c r="F168">
         <v>540</v>
       </c>
-      <c r="G168" t="s">
-        <v>464</v>
+      <c r="G168">
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
@@ -5695,8 +5688,8 @@
       <c r="F169">
         <v>540</v>
       </c>
-      <c r="G169" t="s">
-        <v>464</v>
+      <c r="G169">
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
@@ -5718,8 +5711,8 @@
       <c r="F170">
         <v>540</v>
       </c>
-      <c r="G170" t="s">
-        <v>464</v>
+      <c r="G170">
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
@@ -5741,8 +5734,8 @@
       <c r="F171">
         <v>569</v>
       </c>
-      <c r="G171" t="s">
-        <v>464</v>
+      <c r="G171">
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
@@ -5764,8 +5757,8 @@
       <c r="F172">
         <v>569</v>
       </c>
-      <c r="G172" t="s">
-        <v>464</v>
+      <c r="G172">
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
@@ -5787,8 +5780,8 @@
       <c r="F173">
         <v>569</v>
       </c>
-      <c r="G173" t="s">
-        <v>464</v>
+      <c r="G173">
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
@@ -5810,8 +5803,8 @@
       <c r="F174">
         <v>569</v>
       </c>
-      <c r="G174" t="s">
-        <v>464</v>
+      <c r="G174">
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
@@ -5833,8 +5826,8 @@
       <c r="F175">
         <v>569</v>
       </c>
-      <c r="G175" t="s">
-        <v>464</v>
+      <c r="G175">
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
@@ -5856,8 +5849,8 @@
       <c r="F176">
         <v>569</v>
       </c>
-      <c r="G176" t="s">
-        <v>464</v>
+      <c r="G176">
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
@@ -5879,8 +5872,8 @@
       <c r="F177">
         <v>569</v>
       </c>
-      <c r="G177" t="s">
-        <v>464</v>
+      <c r="G177">
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
@@ -5902,8 +5895,8 @@
       <c r="F178">
         <v>569</v>
       </c>
-      <c r="G178" t="s">
-        <v>464</v>
+      <c r="G178">
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
@@ -5925,8 +5918,8 @@
       <c r="F179">
         <v>569</v>
       </c>
-      <c r="G179" t="s">
-        <v>464</v>
+      <c r="G179">
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
@@ -5948,8 +5941,8 @@
       <c r="F180">
         <v>569</v>
       </c>
-      <c r="G180" t="s">
-        <v>464</v>
+      <c r="G180">
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
@@ -5971,8 +5964,8 @@
       <c r="F181">
         <v>569</v>
       </c>
-      <c r="G181" t="s">
-        <v>464</v>
+      <c r="G181">
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
@@ -5994,8 +5987,8 @@
       <c r="F182">
         <v>574</v>
       </c>
-      <c r="G182" t="s">
-        <v>464</v>
+      <c r="G182">
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
@@ -6017,8 +6010,8 @@
       <c r="F183">
         <v>574</v>
       </c>
-      <c r="G183" t="s">
-        <v>464</v>
+      <c r="G183">
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
@@ -6040,8 +6033,8 @@
       <c r="F184">
         <v>574</v>
       </c>
-      <c r="G184" t="s">
-        <v>464</v>
+      <c r="G184">
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
@@ -6063,8 +6056,8 @@
       <c r="F185">
         <v>574</v>
       </c>
-      <c r="G185" t="s">
-        <v>464</v>
+      <c r="G185">
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
@@ -6086,8 +6079,8 @@
       <c r="F186">
         <v>574</v>
       </c>
-      <c r="G186" t="s">
-        <v>464</v>
+      <c r="G186">
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
@@ -6109,8 +6102,8 @@
       <c r="F187">
         <v>574</v>
       </c>
-      <c r="G187" t="s">
-        <v>464</v>
+      <c r="G187">
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
@@ -6132,8 +6125,8 @@
       <c r="F188">
         <v>593</v>
       </c>
-      <c r="G188" t="s">
-        <v>464</v>
+      <c r="G188">
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
@@ -6155,8 +6148,8 @@
       <c r="F189">
         <v>593</v>
       </c>
-      <c r="G189" t="s">
-        <v>464</v>
+      <c r="G189">
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
@@ -6178,8 +6171,8 @@
       <c r="F190">
         <v>593</v>
       </c>
-      <c r="G190" t="s">
-        <v>464</v>
+      <c r="G190">
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
@@ -6201,8 +6194,8 @@
       <c r="F191">
         <v>593</v>
       </c>
-      <c r="G191" t="s">
-        <v>464</v>
+      <c r="G191">
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
@@ -6224,8 +6217,8 @@
       <c r="F192">
         <v>593</v>
       </c>
-      <c r="G192" t="s">
-        <v>464</v>
+      <c r="G192">
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
@@ -6247,8 +6240,8 @@
       <c r="F193">
         <v>593</v>
       </c>
-      <c r="G193" t="s">
-        <v>464</v>
+      <c r="G193">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
@@ -6270,8 +6263,8 @@
       <c r="F194">
         <v>593</v>
       </c>
-      <c r="G194" t="s">
-        <v>464</v>
+      <c r="G194">
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
@@ -6293,8 +6286,8 @@
       <c r="F195">
         <v>593</v>
       </c>
-      <c r="G195" t="s">
-        <v>464</v>
+      <c r="G195">
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
@@ -6316,8 +6309,8 @@
       <c r="F196">
         <v>593</v>
       </c>
-      <c r="G196" t="s">
-        <v>464</v>
+      <c r="G196">
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
@@ -6339,8 +6332,8 @@
       <c r="F197">
         <v>593</v>
       </c>
-      <c r="G197" t="s">
-        <v>464</v>
+      <c r="G197">
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
@@ -6362,8 +6355,8 @@
       <c r="F198">
         <v>594</v>
       </c>
-      <c r="G198" t="s">
-        <v>464</v>
+      <c r="G198">
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
@@ -6385,8 +6378,8 @@
       <c r="F199">
         <v>594</v>
       </c>
-      <c r="G199" t="s">
-        <v>464</v>
+      <c r="G199">
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
@@ -6408,8 +6401,8 @@
       <c r="F200">
         <v>594</v>
       </c>
-      <c r="G200" t="s">
-        <v>464</v>
+      <c r="G200">
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
@@ -6431,8 +6424,8 @@
       <c r="F201">
         <v>594</v>
       </c>
-      <c r="G201" t="s">
-        <v>464</v>
+      <c r="G201">
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
@@ -6454,8 +6447,8 @@
       <c r="F202">
         <v>594</v>
       </c>
-      <c r="G202" t="s">
-        <v>464</v>
+      <c r="G202">
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
@@ -6477,8 +6470,8 @@
       <c r="F203">
         <v>594</v>
       </c>
-      <c r="G203" t="s">
-        <v>464</v>
+      <c r="G203">
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
@@ -6500,8 +6493,8 @@
       <c r="F204">
         <v>594</v>
       </c>
-      <c r="G204" t="s">
-        <v>464</v>
+      <c r="G204">
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
@@ -6523,8 +6516,8 @@
       <c r="F205">
         <v>594</v>
       </c>
-      <c r="G205" t="s">
-        <v>464</v>
+      <c r="G205">
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
@@ -6546,8 +6539,8 @@
       <c r="F206">
         <v>594</v>
       </c>
-      <c r="G206" t="s">
-        <v>464</v>
+      <c r="G206">
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
@@ -6569,8 +6562,8 @@
       <c r="F207">
         <v>594</v>
       </c>
-      <c r="G207" t="s">
-        <v>464</v>
+      <c r="G207">
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
@@ -6592,8 +6585,8 @@
       <c r="F208">
         <v>594</v>
       </c>
-      <c r="G208" t="s">
-        <v>464</v>
+      <c r="G208">
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
@@ -6615,8 +6608,8 @@
       <c r="F209">
         <v>594</v>
       </c>
-      <c r="G209" t="s">
-        <v>464</v>
+      <c r="G209">
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
@@ -6638,8 +6631,8 @@
       <c r="F210">
         <v>594</v>
       </c>
-      <c r="G210" t="s">
-        <v>464</v>
+      <c r="G210">
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
@@ -6661,8 +6654,8 @@
       <c r="F211">
         <v>594</v>
       </c>
-      <c r="G211" t="s">
-        <v>464</v>
+      <c r="G211">
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
@@ -6684,8 +6677,8 @@
       <c r="F212">
         <v>594</v>
       </c>
-      <c r="G212" t="s">
-        <v>464</v>
+      <c r="G212">
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
@@ -6707,8 +6700,8 @@
       <c r="F213">
         <v>594</v>
       </c>
-      <c r="G213" t="s">
-        <v>464</v>
+      <c r="G213">
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
@@ -6730,8 +6723,8 @@
       <c r="F214">
         <v>594</v>
       </c>
-      <c r="G214" t="s">
-        <v>464</v>
+      <c r="G214">
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
@@ -6753,8 +6746,8 @@
       <c r="F215">
         <v>594</v>
       </c>
-      <c r="G215" t="s">
-        <v>464</v>
+      <c r="G215">
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
@@ -6776,8 +6769,8 @@
       <c r="F216">
         <v>594</v>
       </c>
-      <c r="G216" t="s">
-        <v>464</v>
+      <c r="G216">
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
@@ -6799,8 +6792,8 @@
       <c r="F217">
         <v>594</v>
       </c>
-      <c r="G217" t="s">
-        <v>464</v>
+      <c r="G217">
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
@@ -6822,8 +6815,8 @@
       <c r="F218">
         <v>594</v>
       </c>
-      <c r="G218" t="s">
-        <v>464</v>
+      <c r="G218">
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
@@ -6845,8 +6838,8 @@
       <c r="F219">
         <v>594</v>
       </c>
-      <c r="G219" t="s">
-        <v>464</v>
+      <c r="G219">
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
@@ -6868,8 +6861,8 @@
       <c r="F220">
         <v>594</v>
       </c>
-      <c r="G220" t="s">
-        <v>464</v>
+      <c r="G220">
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
@@ -6891,8 +6884,8 @@
       <c r="F221">
         <v>594</v>
       </c>
-      <c r="G221" t="s">
-        <v>464</v>
+      <c r="G221">
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
@@ -6914,8 +6907,8 @@
       <c r="F222">
         <v>594</v>
       </c>
-      <c r="G222" t="s">
-        <v>464</v>
+      <c r="G222">
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
@@ -6937,8 +6930,8 @@
       <c r="F223">
         <v>594</v>
       </c>
-      <c r="G223" t="s">
-        <v>464</v>
+      <c r="G223">
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
@@ -6960,8 +6953,8 @@
       <c r="F224">
         <v>594</v>
       </c>
-      <c r="G224" t="s">
-        <v>464</v>
+      <c r="G224">
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
@@ -6983,8 +6976,8 @@
       <c r="F225">
         <v>594</v>
       </c>
-      <c r="G225" t="s">
-        <v>464</v>
+      <c r="G225">
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
@@ -7006,8 +6999,8 @@
       <c r="F226">
         <v>594</v>
       </c>
-      <c r="G226" t="s">
-        <v>464</v>
+      <c r="G226">
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
@@ -7029,8 +7022,8 @@
       <c r="F227">
         <v>594</v>
       </c>
-      <c r="G227" t="s">
-        <v>464</v>
+      <c r="G227">
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
@@ -7052,8 +7045,8 @@
       <c r="F228">
         <v>594</v>
       </c>
-      <c r="G228" t="s">
-        <v>464</v>
+      <c r="G228">
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
@@ -7075,8 +7068,8 @@
       <c r="F229">
         <v>594</v>
       </c>
-      <c r="G229" t="s">
-        <v>464</v>
+      <c r="G229">
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
@@ -7098,8 +7091,8 @@
       <c r="F230">
         <v>594</v>
       </c>
-      <c r="G230" t="s">
-        <v>464</v>
+      <c r="G230">
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
@@ -7121,8 +7114,8 @@
       <c r="F231">
         <v>594</v>
       </c>
-      <c r="G231" t="s">
-        <v>464</v>
+      <c r="G231">
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
@@ -7144,8 +7137,8 @@
       <c r="F232">
         <v>594</v>
       </c>
-      <c r="G232" t="s">
-        <v>464</v>
+      <c r="G232">
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
@@ -7167,8 +7160,8 @@
       <c r="F233">
         <v>594</v>
       </c>
-      <c r="G233" t="s">
-        <v>464</v>
+      <c r="G233">
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
@@ -7190,8 +7183,8 @@
       <c r="F234">
         <v>594</v>
       </c>
-      <c r="G234" t="s">
-        <v>464</v>
+      <c r="G234">
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
@@ -7213,8 +7206,8 @@
       <c r="F235">
         <v>622</v>
       </c>
-      <c r="G235" t="s">
-        <v>464</v>
+      <c r="G235">
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
@@ -7236,8 +7229,8 @@
       <c r="F236">
         <v>622</v>
       </c>
-      <c r="G236" t="s">
-        <v>464</v>
+      <c r="G236">
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
@@ -7259,8 +7252,8 @@
       <c r="F237">
         <v>622</v>
       </c>
-      <c r="G237" t="s">
-        <v>464</v>
+      <c r="G237">
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
@@ -7282,8 +7275,8 @@
       <c r="F238">
         <v>622</v>
       </c>
-      <c r="G238" t="s">
-        <v>464</v>
+      <c r="G238">
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
@@ -7305,8 +7298,8 @@
       <c r="F239">
         <v>622</v>
       </c>
-      <c r="G239" t="s">
-        <v>464</v>
+      <c r="G239">
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
@@ -7328,8 +7321,8 @@
       <c r="F240">
         <v>622</v>
       </c>
-      <c r="G240" t="s">
-        <v>464</v>
+      <c r="G240">
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
@@ -7351,8 +7344,8 @@
       <c r="F241">
         <v>622</v>
       </c>
-      <c r="G241" t="s">
-        <v>464</v>
+      <c r="G241">
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
@@ -7374,8 +7367,8 @@
       <c r="F242">
         <v>622</v>
       </c>
-      <c r="G242" t="s">
-        <v>464</v>
+      <c r="G242">
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
@@ -7397,8 +7390,8 @@
       <c r="F243">
         <v>622</v>
       </c>
-      <c r="G243" t="s">
-        <v>464</v>
+      <c r="G243">
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
@@ -7420,8 +7413,8 @@
       <c r="F244">
         <v>622</v>
       </c>
-      <c r="G244" t="s">
-        <v>464</v>
+      <c r="G244">
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
@@ -7443,8 +7436,8 @@
       <c r="F245">
         <v>622</v>
       </c>
-      <c r="G245" t="s">
-        <v>464</v>
+      <c r="G245">
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
@@ -7466,8 +7459,8 @@
       <c r="F246">
         <v>132</v>
       </c>
-      <c r="G246" t="s">
-        <v>464</v>
+      <c r="G246">
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
@@ -7489,8 +7482,8 @@
       <c r="F247">
         <v>132</v>
       </c>
-      <c r="G247" t="s">
-        <v>464</v>
+      <c r="G247">
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
@@ -7512,8 +7505,8 @@
       <c r="F248">
         <v>132</v>
       </c>
-      <c r="G248" t="s">
-        <v>464</v>
+      <c r="G248">
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
@@ -7535,8 +7528,8 @@
       <c r="F249">
         <v>132</v>
       </c>
-      <c r="G249" t="s">
-        <v>464</v>
+      <c r="G249">
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
@@ -7558,8 +7551,8 @@
       <c r="F250">
         <v>132</v>
       </c>
-      <c r="G250" t="s">
-        <v>464</v>
+      <c r="G250">
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
@@ -7581,8 +7574,8 @@
       <c r="F251">
         <v>132</v>
       </c>
-      <c r="G251" t="s">
-        <v>464</v>
+      <c r="G251">
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
@@ -7604,11 +7597,11 @@
       <c r="F252">
         <v>132</v>
       </c>
-      <c r="G252" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>59</v>
       </c>
@@ -7627,11 +7620,11 @@
       <c r="F253">
         <v>151</v>
       </c>
-      <c r="G253" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>65</v>
       </c>
@@ -7650,11 +7643,11 @@
       <c r="F254">
         <v>151</v>
       </c>
-      <c r="G254" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>358</v>
       </c>
@@ -7673,11 +7666,11 @@
       <c r="F255">
         <v>151</v>
       </c>
-      <c r="G255" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>107</v>
       </c>
@@ -7696,11 +7689,11 @@
       <c r="F256">
         <v>151</v>
       </c>
-      <c r="G256" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>6</v>
       </c>
@@ -7719,11 +7712,11 @@
       <c r="F257">
         <v>151</v>
       </c>
-      <c r="G257" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>10</v>
       </c>
@@ -7742,11 +7735,11 @@
       <c r="F258">
         <v>151</v>
       </c>
-      <c r="G258" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>12</v>
       </c>
@@ -7765,11 +7758,11 @@
       <c r="F259">
         <v>151</v>
       </c>
-      <c r="G259" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>360</v>
       </c>
@@ -7788,11 +7781,11 @@
       <c r="F260">
         <v>151</v>
       </c>
-      <c r="G260" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>109</v>
       </c>
@@ -7811,11 +7804,11 @@
       <c r="F261">
         <v>151</v>
       </c>
-      <c r="G261" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>362</v>
       </c>
@@ -7834,11 +7827,11 @@
       <c r="F262">
         <v>151</v>
       </c>
-      <c r="G262" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>24</v>
       </c>
@@ -7857,11 +7850,11 @@
       <c r="F263">
         <v>151</v>
       </c>
-      <c r="G263" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>37</v>
       </c>
@@ -7880,11 +7873,11 @@
       <c r="F264">
         <v>151</v>
       </c>
-      <c r="G264" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>129</v>
       </c>
@@ -7903,11 +7896,11 @@
       <c r="F265">
         <v>151</v>
       </c>
-      <c r="G265" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>364</v>
       </c>
@@ -7926,11 +7919,11 @@
       <c r="F266">
         <v>151</v>
       </c>
-      <c r="G266" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>321</v>
       </c>
@@ -7949,11 +7942,11 @@
       <c r="F267">
         <v>151</v>
       </c>
-      <c r="G267" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>323</v>
       </c>
@@ -7972,11 +7965,11 @@
       <c r="F268">
         <v>151</v>
       </c>
-      <c r="G268" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>131</v>
       </c>
@@ -7995,11 +7988,11 @@
       <c r="F269">
         <v>151</v>
       </c>
-      <c r="G269" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>133</v>
       </c>
@@ -8018,11 +8011,11 @@
       <c r="F270">
         <v>151</v>
       </c>
-      <c r="G270" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>39</v>
       </c>
@@ -8041,11 +8034,11 @@
       <c r="F271">
         <v>151</v>
       </c>
-      <c r="G271" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>135</v>
       </c>
@@ -8064,11 +8057,11 @@
       <c r="F272">
         <v>151</v>
       </c>
-      <c r="G272" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>137</v>
       </c>
@@ -8087,11 +8080,11 @@
       <c r="F273">
         <v>151</v>
       </c>
-      <c r="G273" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>139</v>
       </c>
@@ -8110,11 +8103,11 @@
       <c r="F274">
         <v>151</v>
       </c>
-      <c r="G274" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>241</v>
       </c>
@@ -8133,11 +8126,11 @@
       <c r="F275">
         <v>151</v>
       </c>
-      <c r="G275" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>41</v>
       </c>
@@ -8156,11 +8149,11 @@
       <c r="F276">
         <v>151</v>
       </c>
-      <c r="G276" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>141</v>
       </c>
@@ -8179,11 +8172,11 @@
       <c r="F277">
         <v>151</v>
       </c>
-      <c r="G277" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>366</v>
       </c>
@@ -8202,11 +8195,11 @@
       <c r="F278">
         <v>151</v>
       </c>
-      <c r="G278" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>368</v>
       </c>
@@ -8225,11 +8218,11 @@
       <c r="F279">
         <v>151</v>
       </c>
-      <c r="G279" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>43</v>
       </c>
@@ -8248,11 +8241,11 @@
       <c r="F280">
         <v>151</v>
       </c>
-      <c r="G280" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>370</v>
       </c>
@@ -8271,11 +8264,11 @@
       <c r="F281">
         <v>151</v>
       </c>
-      <c r="G281" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>251</v>
       </c>
@@ -8294,11 +8287,11 @@
       <c r="F282">
         <v>151</v>
       </c>
-      <c r="G282" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>143</v>
       </c>
@@ -8317,11 +8310,11 @@
       <c r="F283">
         <v>151</v>
       </c>
-      <c r="G283" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>45</v>
       </c>
@@ -8340,11 +8333,11 @@
       <c r="F284">
         <v>151</v>
       </c>
-      <c r="G284" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>255</v>
       </c>
@@ -8363,11 +8356,11 @@
       <c r="F285">
         <v>151</v>
       </c>
-      <c r="G285" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>325</v>
       </c>
@@ -8386,11 +8379,11 @@
       <c r="F286">
         <v>151</v>
       </c>
-      <c r="G286" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>145</v>
       </c>
@@ -8409,11 +8402,11 @@
       <c r="F287">
         <v>151</v>
       </c>
-      <c r="G287" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>47</v>
       </c>
@@ -8432,11 +8425,11 @@
       <c r="F288">
         <v>151</v>
       </c>
-      <c r="G288" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>247</v>
       </c>
@@ -8455,8 +8448,8 @@
       <c r="F289">
         <v>151</v>
       </c>
-      <c r="G289" t="s">
-        <v>463</v>
+      <c r="G289">
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
@@ -8478,8 +8471,8 @@
       <c r="F290">
         <v>267</v>
       </c>
-      <c r="G290" t="s">
-        <v>464</v>
+      <c r="G290">
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
@@ -8501,8 +8494,8 @@
       <c r="F291">
         <v>267</v>
       </c>
-      <c r="G291" t="s">
-        <v>464</v>
+      <c r="G291">
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
@@ -8524,8 +8517,8 @@
       <c r="F292">
         <v>267</v>
       </c>
-      <c r="G292" t="s">
-        <v>464</v>
+      <c r="G292">
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
@@ -8547,8 +8540,8 @@
       <c r="F293">
         <v>267</v>
       </c>
-      <c r="G293" t="s">
-        <v>464</v>
+      <c r="G293">
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.35">
@@ -8570,8 +8563,8 @@
       <c r="F294">
         <v>267</v>
       </c>
-      <c r="G294" t="s">
-        <v>464</v>
+      <c r="G294">
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.35">
@@ -8593,8 +8586,8 @@
       <c r="F295">
         <v>267</v>
       </c>
-      <c r="G295" t="s">
-        <v>464</v>
+      <c r="G295">
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
@@ -8616,8 +8609,8 @@
       <c r="F296">
         <v>267</v>
       </c>
-      <c r="G296" t="s">
-        <v>464</v>
+      <c r="G296">
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
@@ -8639,8 +8632,8 @@
       <c r="F297">
         <v>267</v>
       </c>
-      <c r="G297" t="s">
-        <v>464</v>
+      <c r="G297">
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
@@ -8662,8 +8655,8 @@
       <c r="F298">
         <v>267</v>
       </c>
-      <c r="G298" t="s">
-        <v>464</v>
+      <c r="G298">
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
@@ -8685,8 +8678,8 @@
       <c r="F299">
         <v>267</v>
       </c>
-      <c r="G299" t="s">
-        <v>464</v>
+      <c r="G299">
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
@@ -8708,8 +8701,8 @@
       <c r="F300">
         <v>267</v>
       </c>
-      <c r="G300" t="s">
-        <v>464</v>
+      <c r="G300">
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
@@ -8731,8 +8724,8 @@
       <c r="F301">
         <v>267</v>
       </c>
-      <c r="G301" t="s">
-        <v>464</v>
+      <c r="G301">
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
@@ -8754,8 +8747,8 @@
       <c r="F302">
         <v>267</v>
       </c>
-      <c r="G302" t="s">
-        <v>464</v>
+      <c r="G302">
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.35">
@@ -8777,8 +8770,8 @@
       <c r="F303">
         <v>267</v>
       </c>
-      <c r="G303" t="s">
-        <v>464</v>
+      <c r="G303">
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.35">
@@ -8800,8 +8793,8 @@
       <c r="F304">
         <v>267</v>
       </c>
-      <c r="G304" t="s">
-        <v>464</v>
+      <c r="G304">
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.35">
@@ -8823,8 +8816,8 @@
       <c r="F305">
         <v>267</v>
       </c>
-      <c r="G305" t="s">
-        <v>464</v>
+      <c r="G305">
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.35">
@@ -8846,8 +8839,8 @@
       <c r="F306">
         <v>267</v>
       </c>
-      <c r="G306" t="s">
-        <v>464</v>
+      <c r="G306">
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.35">
@@ -8869,8 +8862,8 @@
       <c r="F307">
         <v>286</v>
       </c>
-      <c r="G307" t="s">
-        <v>464</v>
+      <c r="G307">
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.35">
@@ -8892,8 +8885,8 @@
       <c r="F308">
         <v>286</v>
       </c>
-      <c r="G308" t="s">
-        <v>464</v>
+      <c r="G308">
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.35">
@@ -8915,8 +8908,8 @@
       <c r="F309">
         <v>286</v>
       </c>
-      <c r="G309" t="s">
-        <v>464</v>
+      <c r="G309">
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.35">
@@ -8938,8 +8931,8 @@
       <c r="F310">
         <v>286</v>
       </c>
-      <c r="G310" t="s">
-        <v>464</v>
+      <c r="G310">
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.35">
@@ -8961,8 +8954,8 @@
       <c r="F311">
         <v>286</v>
       </c>
-      <c r="G311" t="s">
-        <v>464</v>
+      <c r="G311">
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.35">
@@ -8984,8 +8977,8 @@
       <c r="F312">
         <v>286</v>
       </c>
-      <c r="G312" t="s">
-        <v>464</v>
+      <c r="G312">
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.35">
@@ -9007,8 +9000,8 @@
       <c r="F313">
         <v>286</v>
       </c>
-      <c r="G313" t="s">
-        <v>464</v>
+      <c r="G313">
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.35">
@@ -9030,8 +9023,8 @@
       <c r="F314">
         <v>286</v>
       </c>
-      <c r="G314" t="s">
-        <v>464</v>
+      <c r="G314">
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.35">
@@ -9053,8 +9046,8 @@
       <c r="F315">
         <v>286</v>
       </c>
-      <c r="G315" t="s">
-        <v>464</v>
+      <c r="G315">
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.35">
@@ -9076,8 +9069,8 @@
       <c r="F316">
         <v>286</v>
       </c>
-      <c r="G316" t="s">
-        <v>464</v>
+      <c r="G316">
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.35">
@@ -9099,8 +9092,8 @@
       <c r="F317">
         <v>286</v>
       </c>
-      <c r="G317" t="s">
-        <v>464</v>
+      <c r="G317">
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.35">
@@ -9122,8 +9115,8 @@
       <c r="F318">
         <v>286</v>
       </c>
-      <c r="G318" t="s">
-        <v>464</v>
+      <c r="G318">
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.35">
@@ -9145,8 +9138,8 @@
       <c r="F319">
         <v>286</v>
       </c>
-      <c r="G319" t="s">
-        <v>464</v>
+      <c r="G319">
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.35">
@@ -9168,8 +9161,8 @@
       <c r="F320">
         <v>286</v>
       </c>
-      <c r="G320" t="s">
-        <v>464</v>
+      <c r="G320">
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.35">
@@ -9191,8 +9184,8 @@
       <c r="F321">
         <v>286</v>
       </c>
-      <c r="G321" t="s">
-        <v>464</v>
+      <c r="G321">
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.35">
@@ -9214,8 +9207,8 @@
       <c r="F322">
         <v>286</v>
       </c>
-      <c r="G322" t="s">
-        <v>464</v>
+      <c r="G322">
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.35">
@@ -9237,8 +9230,8 @@
       <c r="F323">
         <v>286</v>
       </c>
-      <c r="G323" t="s">
-        <v>464</v>
+      <c r="G323">
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.35">
@@ -9260,8 +9253,8 @@
       <c r="F324">
         <v>286</v>
       </c>
-      <c r="G324" t="s">
-        <v>464</v>
+      <c r="G324">
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.35">
@@ -9283,8 +9276,8 @@
       <c r="F325">
         <v>286</v>
       </c>
-      <c r="G325" t="s">
-        <v>464</v>
+      <c r="G325">
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.35">
@@ -9306,8 +9299,8 @@
       <c r="F326">
         <v>286</v>
       </c>
-      <c r="G326" t="s">
-        <v>464</v>
+      <c r="G326">
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.35">
@@ -9329,8 +9322,8 @@
       <c r="F327">
         <v>286</v>
       </c>
-      <c r="G327" t="s">
-        <v>464</v>
+      <c r="G327">
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.35">
@@ -9352,8 +9345,8 @@
       <c r="F328">
         <v>286</v>
       </c>
-      <c r="G328" t="s">
-        <v>464</v>
+      <c r="G328">
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.35">
@@ -9375,8 +9368,8 @@
       <c r="F329">
         <v>286</v>
       </c>
-      <c r="G329" t="s">
-        <v>464</v>
+      <c r="G329">
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.35">
@@ -9398,8 +9391,8 @@
       <c r="F330">
         <v>286</v>
       </c>
-      <c r="G330" t="s">
-        <v>464</v>
+      <c r="G330">
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.35">
@@ -9421,8 +9414,8 @@
       <c r="F331">
         <v>286</v>
       </c>
-      <c r="G331" t="s">
-        <v>464</v>
+      <c r="G331">
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.35">
@@ -9444,8 +9437,8 @@
       <c r="F332">
         <v>294</v>
       </c>
-      <c r="G332" t="s">
-        <v>464</v>
+      <c r="G332">
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.35">
@@ -9467,8 +9460,8 @@
       <c r="F333">
         <v>294</v>
       </c>
-      <c r="G333" t="s">
-        <v>464</v>
+      <c r="G333">
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.35">
@@ -9490,8 +9483,8 @@
       <c r="F334">
         <v>294</v>
       </c>
-      <c r="G334" t="s">
-        <v>464</v>
+      <c r="G334">
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.35">
@@ -9513,8 +9506,8 @@
       <c r="F335">
         <v>294</v>
       </c>
-      <c r="G335" t="s">
-        <v>464</v>
+      <c r="G335">
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.35">
@@ -9536,8 +9529,8 @@
       <c r="F336">
         <v>294</v>
       </c>
-      <c r="G336" t="s">
-        <v>464</v>
+      <c r="G336">
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.35">
@@ -9559,8 +9552,8 @@
       <c r="F337">
         <v>294</v>
       </c>
-      <c r="G337" t="s">
-        <v>464</v>
+      <c r="G337">
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.35">
@@ -9582,8 +9575,8 @@
       <c r="F338">
         <v>294</v>
       </c>
-      <c r="G338" t="s">
-        <v>464</v>
+      <c r="G338">
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.35">
@@ -9605,8 +9598,8 @@
       <c r="F339">
         <v>306</v>
       </c>
-      <c r="G339" t="s">
-        <v>464</v>
+      <c r="G339">
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.35">
@@ -9628,8 +9621,8 @@
       <c r="F340">
         <v>306</v>
       </c>
-      <c r="G340" t="s">
-        <v>464</v>
+      <c r="G340">
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.35">
@@ -9651,8 +9644,8 @@
       <c r="F341">
         <v>306</v>
       </c>
-      <c r="G341" t="s">
-        <v>464</v>
+      <c r="G341">
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.35">
@@ -9674,8 +9667,8 @@
       <c r="F342">
         <v>306</v>
       </c>
-      <c r="G342" t="s">
-        <v>464</v>
+      <c r="G342">
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.35">
@@ -9697,8 +9690,8 @@
       <c r="F343">
         <v>306</v>
       </c>
-      <c r="G343" t="s">
-        <v>464</v>
+      <c r="G343">
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.35">
@@ -9720,8 +9713,8 @@
       <c r="F344">
         <v>306</v>
       </c>
-      <c r="G344" t="s">
-        <v>464</v>
+      <c r="G344">
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.35">
@@ -9743,8 +9736,8 @@
       <c r="F345">
         <v>306</v>
       </c>
-      <c r="G345" t="s">
-        <v>464</v>
+      <c r="G345">
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.35">
@@ -9766,8 +9759,8 @@
       <c r="F346">
         <v>306</v>
       </c>
-      <c r="G346" t="s">
-        <v>464</v>
+      <c r="G346">
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.35">
@@ -9789,8 +9782,8 @@
       <c r="F347">
         <v>306</v>
       </c>
-      <c r="G347" t="s">
-        <v>464</v>
+      <c r="G347">
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.35">
@@ -9812,8 +9805,8 @@
       <c r="F348">
         <v>306</v>
       </c>
-      <c r="G348" t="s">
-        <v>464</v>
+      <c r="G348">
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.35">
@@ -9835,8 +9828,8 @@
       <c r="F349">
         <v>306</v>
       </c>
-      <c r="G349" t="s">
-        <v>464</v>
+      <c r="G349">
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.35">
@@ -9858,8 +9851,8 @@
       <c r="F350">
         <v>306</v>
       </c>
-      <c r="G350" t="s">
-        <v>464</v>
+      <c r="G350">
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.35">
@@ -9881,8 +9874,8 @@
       <c r="F351">
         <v>306</v>
       </c>
-      <c r="G351" t="s">
-        <v>464</v>
+      <c r="G351">
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.35">
@@ -9904,8 +9897,8 @@
       <c r="F352">
         <v>306</v>
       </c>
-      <c r="G352" t="s">
-        <v>464</v>
+      <c r="G352">
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.35">
@@ -9927,8 +9920,8 @@
       <c r="F353">
         <v>306</v>
       </c>
-      <c r="G353" t="s">
-        <v>464</v>
+      <c r="G353">
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.35">
@@ -9950,8 +9943,8 @@
       <c r="F354">
         <v>306</v>
       </c>
-      <c r="G354" t="s">
-        <v>464</v>
+      <c r="G354">
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.35">
@@ -9973,8 +9966,8 @@
       <c r="F355">
         <v>306</v>
       </c>
-      <c r="G355" t="s">
-        <v>464</v>
+      <c r="G355">
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.35">
@@ -9996,8 +9989,8 @@
       <c r="F356">
         <v>306</v>
       </c>
-      <c r="G356" t="s">
-        <v>464</v>
+      <c r="G356">
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.35">
@@ -10019,8 +10012,8 @@
       <c r="F357">
         <v>306</v>
       </c>
-      <c r="G357" t="s">
-        <v>464</v>
+      <c r="G357">
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.35">
@@ -10042,8 +10035,8 @@
       <c r="F358">
         <v>306</v>
       </c>
-      <c r="G358" t="s">
-        <v>464</v>
+      <c r="G358">
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.35">
@@ -10065,8 +10058,8 @@
       <c r="F359">
         <v>306</v>
       </c>
-      <c r="G359" t="s">
-        <v>464</v>
+      <c r="G359">
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.35">
@@ -10088,8 +10081,8 @@
       <c r="F360">
         <v>306</v>
       </c>
-      <c r="G360" t="s">
-        <v>464</v>
+      <c r="G360">
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.35">
@@ -10111,8 +10104,8 @@
       <c r="F361">
         <v>309</v>
       </c>
-      <c r="G361" t="s">
-        <v>464</v>
+      <c r="G361">
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.35">
@@ -10134,8 +10127,8 @@
       <c r="F362">
         <v>309</v>
       </c>
-      <c r="G362" t="s">
-        <v>464</v>
+      <c r="G362">
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.35">
@@ -10157,8 +10150,8 @@
       <c r="F363">
         <v>309</v>
       </c>
-      <c r="G363" t="s">
-        <v>464</v>
+      <c r="G363">
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.35">
@@ -10180,8 +10173,8 @@
       <c r="F364">
         <v>309</v>
       </c>
-      <c r="G364" t="s">
-        <v>464</v>
+      <c r="G364">
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.35">
@@ -10203,8 +10196,8 @@
       <c r="F365">
         <v>309</v>
       </c>
-      <c r="G365" t="s">
-        <v>464</v>
+      <c r="G365">
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.35">
@@ -10226,8 +10219,8 @@
       <c r="F366">
         <v>309</v>
       </c>
-      <c r="G366" t="s">
-        <v>464</v>
+      <c r="G366">
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.35">
@@ -10249,8 +10242,8 @@
       <c r="F367">
         <v>309</v>
       </c>
-      <c r="G367" t="s">
-        <v>464</v>
+      <c r="G367">
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.35">
@@ -10272,8 +10265,8 @@
       <c r="F368">
         <v>309</v>
       </c>
-      <c r="G368" t="s">
-        <v>464</v>
+      <c r="G368">
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.35">
@@ -10295,11 +10288,11 @@
       <c r="F369">
         <v>309</v>
       </c>
-      <c r="G369" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>57</v>
       </c>
@@ -10318,11 +10311,11 @@
       <c r="F370">
         <v>317</v>
       </c>
-      <c r="G370" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>404</v>
       </c>
@@ -10341,11 +10334,11 @@
       <c r="F371">
         <v>317</v>
       </c>
-      <c r="G371" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>111</v>
       </c>
@@ -10364,11 +10357,11 @@
       <c r="F372">
         <v>317</v>
       </c>
-      <c r="G372" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>37</v>
       </c>
@@ -10387,11 +10380,11 @@
       <c r="F373">
         <v>317</v>
       </c>
-      <c r="G373" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>43</v>
       </c>
@@ -10410,11 +10403,11 @@
       <c r="F374">
         <v>317</v>
       </c>
-      <c r="G374" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>143</v>
       </c>
@@ -10433,11 +10426,11 @@
       <c r="F375">
         <v>317</v>
       </c>
-      <c r="G375" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>155</v>
       </c>
@@ -10456,11 +10449,11 @@
       <c r="F376">
         <v>317</v>
       </c>
-      <c r="G376" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>265</v>
       </c>
@@ -10479,11 +10472,11 @@
       <c r="F377">
         <v>317</v>
       </c>
-      <c r="G377" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>151</v>
       </c>
@@ -10502,11 +10495,11 @@
       <c r="F378">
         <v>317</v>
       </c>
-      <c r="G378" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>153</v>
       </c>
@@ -10525,11 +10518,11 @@
       <c r="F379">
         <v>317</v>
       </c>
-      <c r="G379" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>299</v>
       </c>
@@ -10548,11 +10541,11 @@
       <c r="F380">
         <v>317</v>
       </c>
-      <c r="G380" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>199</v>
       </c>
@@ -10571,11 +10564,11 @@
       <c r="F381">
         <v>317</v>
       </c>
-      <c r="G381" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>271</v>
       </c>
@@ -10594,11 +10587,11 @@
       <c r="F382">
         <v>317</v>
       </c>
-      <c r="G382" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>247</v>
       </c>
@@ -10617,11 +10610,11 @@
       <c r="F383">
         <v>317</v>
       </c>
-      <c r="G383" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>249</v>
       </c>
@@ -10640,8 +10633,8 @@
       <c r="F384">
         <v>317</v>
       </c>
-      <c r="G384" t="s">
-        <v>463</v>
+      <c r="G384">
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.35">
@@ -10663,8 +10656,8 @@
       <c r="F385">
         <v>320</v>
       </c>
-      <c r="G385" t="s">
-        <v>464</v>
+      <c r="G385">
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.35">
@@ -10686,8 +10679,8 @@
       <c r="F386">
         <v>320</v>
       </c>
-      <c r="G386" t="s">
-        <v>464</v>
+      <c r="G386">
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.35">
@@ -10709,8 +10702,8 @@
       <c r="F387">
         <v>320</v>
       </c>
-      <c r="G387" t="s">
-        <v>464</v>
+      <c r="G387">
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.35">
@@ -10732,8 +10725,8 @@
       <c r="F388">
         <v>320</v>
       </c>
-      <c r="G388" t="s">
-        <v>464</v>
+      <c r="G388">
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.35">
@@ -10755,8 +10748,8 @@
       <c r="F389">
         <v>320</v>
       </c>
-      <c r="G389" t="s">
-        <v>464</v>
+      <c r="G389">
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.35">
@@ -10778,8 +10771,8 @@
       <c r="F390">
         <v>320</v>
       </c>
-      <c r="G390" t="s">
-        <v>464</v>
+      <c r="G390">
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.35">
@@ -10801,8 +10794,8 @@
       <c r="F391">
         <v>320</v>
       </c>
-      <c r="G391" t="s">
-        <v>464</v>
+      <c r="G391">
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.35">
@@ -10824,8 +10817,8 @@
       <c r="F392">
         <v>320</v>
       </c>
-      <c r="G392" t="s">
-        <v>464</v>
+      <c r="G392">
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.35">
@@ -10847,8 +10840,8 @@
       <c r="F393">
         <v>320</v>
       </c>
-      <c r="G393" t="s">
-        <v>464</v>
+      <c r="G393">
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.35">
@@ -10870,8 +10863,8 @@
       <c r="F394">
         <v>320</v>
       </c>
-      <c r="G394" t="s">
-        <v>464</v>
+      <c r="G394">
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.35">
@@ -10893,8 +10886,8 @@
       <c r="F395">
         <v>320</v>
       </c>
-      <c r="G395" t="s">
-        <v>464</v>
+      <c r="G395">
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.35">
@@ -10916,8 +10909,8 @@
       <c r="F396">
         <v>320</v>
       </c>
-      <c r="G396" t="s">
-        <v>464</v>
+      <c r="G396">
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.35">
@@ -10939,8 +10932,8 @@
       <c r="F397">
         <v>320</v>
       </c>
-      <c r="G397" t="s">
-        <v>464</v>
+      <c r="G397">
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.35">
@@ -10962,8 +10955,8 @@
       <c r="F398">
         <v>320</v>
       </c>
-      <c r="G398" t="s">
-        <v>464</v>
+      <c r="G398">
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.35">
@@ -10985,8 +10978,8 @@
       <c r="F399">
         <v>320</v>
       </c>
-      <c r="G399" t="s">
-        <v>464</v>
+      <c r="G399">
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.35">
@@ -11008,8 +11001,8 @@
       <c r="F400">
         <v>320</v>
       </c>
-      <c r="G400" t="s">
-        <v>464</v>
+      <c r="G400">
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.35">
@@ -11031,8 +11024,8 @@
       <c r="F401">
         <v>416</v>
       </c>
-      <c r="G401" t="s">
-        <v>464</v>
+      <c r="G401">
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.35">
@@ -11054,8 +11047,8 @@
       <c r="F402">
         <v>416</v>
       </c>
-      <c r="G402" t="s">
-        <v>464</v>
+      <c r="G402">
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.35">
@@ -11077,8 +11070,8 @@
       <c r="F403">
         <v>416</v>
       </c>
-      <c r="G403" t="s">
-        <v>464</v>
+      <c r="G403">
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.35">
@@ -11100,8 +11093,8 @@
       <c r="F404">
         <v>416</v>
       </c>
-      <c r="G404" t="s">
-        <v>464</v>
+      <c r="G404">
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.35">
@@ -11123,8 +11116,8 @@
       <c r="F405">
         <v>416</v>
       </c>
-      <c r="G405" t="s">
-        <v>464</v>
+      <c r="G405">
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.35">
@@ -11146,8 +11139,8 @@
       <c r="F406">
         <v>416</v>
       </c>
-      <c r="G406" t="s">
-        <v>464</v>
+      <c r="G406">
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.35">
@@ -11169,8 +11162,8 @@
       <c r="F407">
         <v>416</v>
       </c>
-      <c r="G407" t="s">
-        <v>464</v>
+      <c r="G407">
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.35">
@@ -11192,11 +11185,11 @@
       <c r="F408">
         <v>416</v>
       </c>
-      <c r="G408" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>53</v>
       </c>
@@ -11215,11 +11208,11 @@
       <c r="F409">
         <v>429</v>
       </c>
-      <c r="G409" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>51</v>
       </c>
@@ -11238,11 +11231,11 @@
       <c r="F410">
         <v>429</v>
       </c>
-      <c r="G410" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>119</v>
       </c>
@@ -11261,11 +11254,11 @@
       <c r="F411">
         <v>429</v>
       </c>
-      <c r="G411" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>205</v>
       </c>
@@ -11284,11 +11277,11 @@
       <c r="F412">
         <v>429</v>
       </c>
-      <c r="G412" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>209</v>
       </c>
@@ -11307,11 +11300,11 @@
       <c r="F413">
         <v>429</v>
       </c>
-      <c r="G413" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>211</v>
       </c>
@@ -11330,11 +11323,11 @@
       <c r="F414">
         <v>429</v>
       </c>
-      <c r="G414" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>213</v>
       </c>
@@ -11353,11 +11346,11 @@
       <c r="F415">
         <v>429</v>
       </c>
-      <c r="G415" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>414</v>
       </c>
@@ -11376,11 +11369,11 @@
       <c r="F416">
         <v>429</v>
       </c>
-      <c r="G416" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>416</v>
       </c>
@@ -11399,11 +11392,11 @@
       <c r="F417">
         <v>429</v>
       </c>
-      <c r="G417" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>219</v>
       </c>
@@ -11422,11 +11415,11 @@
       <c r="F418">
         <v>429</v>
       </c>
-      <c r="G418" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>125</v>
       </c>
@@ -11445,11 +11438,11 @@
       <c r="F419">
         <v>429</v>
       </c>
-      <c r="G419" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>201</v>
       </c>
@@ -11468,11 +11461,11 @@
       <c r="F420">
         <v>429</v>
       </c>
-      <c r="G420" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>418</v>
       </c>
@@ -11491,11 +11484,11 @@
       <c r="F421">
         <v>429</v>
       </c>
-      <c r="G421" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>215</v>
       </c>
@@ -11514,11 +11507,11 @@
       <c r="F422">
         <v>429</v>
       </c>
-      <c r="G422" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>410</v>
       </c>
@@ -11537,11 +11530,11 @@
       <c r="F423">
         <v>429</v>
       </c>
-      <c r="G423" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>149</v>
       </c>
@@ -11560,11 +11553,11 @@
       <c r="F424">
         <v>429</v>
       </c>
-      <c r="G424" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>105</v>
       </c>
@@ -11583,11 +11576,11 @@
       <c r="F425">
         <v>429</v>
       </c>
-      <c r="G425" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>285</v>
       </c>
@@ -11606,11 +11599,11 @@
       <c r="F426">
         <v>429</v>
       </c>
-      <c r="G426" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>225</v>
       </c>
@@ -11629,11 +11622,11 @@
       <c r="F427">
         <v>429</v>
       </c>
-      <c r="G427" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>283</v>
       </c>
@@ -11652,8 +11645,8 @@
       <c r="F428">
         <v>429</v>
       </c>
-      <c r="G428" t="s">
-        <v>463</v>
+      <c r="G428">
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.35">
@@ -11675,8 +11668,8 @@
       <c r="F429">
         <v>436</v>
       </c>
-      <c r="G429" t="s">
-        <v>464</v>
+      <c r="G429">
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.35">
@@ -11698,8 +11691,8 @@
       <c r="F430">
         <v>471</v>
       </c>
-      <c r="G430" t="s">
-        <v>464</v>
+      <c r="G430">
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.35">
@@ -11721,8 +11714,8 @@
       <c r="F431">
         <v>471</v>
       </c>
-      <c r="G431" t="s">
-        <v>464</v>
+      <c r="G431">
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.35">
@@ -11744,8 +11737,8 @@
       <c r="F432">
         <v>471</v>
       </c>
-      <c r="G432" t="s">
-        <v>464</v>
+      <c r="G432">
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.35">
@@ -11767,8 +11760,8 @@
       <c r="F433">
         <v>471</v>
       </c>
-      <c r="G433" t="s">
-        <v>464</v>
+      <c r="G433">
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.35">
@@ -11790,8 +11783,8 @@
       <c r="F434">
         <v>471</v>
       </c>
-      <c r="G434" t="s">
-        <v>464</v>
+      <c r="G434">
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.35">
@@ -11813,8 +11806,8 @@
       <c r="F435">
         <v>471</v>
       </c>
-      <c r="G435" t="s">
-        <v>464</v>
+      <c r="G435">
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.35">
@@ -11836,8 +11829,8 @@
       <c r="F436">
         <v>471</v>
       </c>
-      <c r="G436" t="s">
-        <v>464</v>
+      <c r="G436">
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.35">
@@ -11859,8 +11852,8 @@
       <c r="F437">
         <v>471</v>
       </c>
-      <c r="G437" t="s">
-        <v>464</v>
+      <c r="G437">
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.35">
@@ -11882,8 +11875,8 @@
       <c r="F438">
         <v>471</v>
       </c>
-      <c r="G438" t="s">
-        <v>464</v>
+      <c r="G438">
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.35">
@@ -11905,8 +11898,8 @@
       <c r="F439">
         <v>471</v>
       </c>
-      <c r="G439" t="s">
-        <v>464</v>
+      <c r="G439">
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.35">
@@ -11928,8 +11921,8 @@
       <c r="F440">
         <v>471</v>
       </c>
-      <c r="G440" t="s">
-        <v>464</v>
+      <c r="G440">
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.35">
@@ -11951,8 +11944,8 @@
       <c r="F441">
         <v>471</v>
       </c>
-      <c r="G441" t="s">
-        <v>464</v>
+      <c r="G441">
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.35">
@@ -11974,8 +11967,8 @@
       <c r="F442">
         <v>471</v>
       </c>
-      <c r="G442" t="s">
-        <v>464</v>
+      <c r="G442">
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.35">
@@ -11997,8 +11990,8 @@
       <c r="F443">
         <v>471</v>
       </c>
-      <c r="G443" t="s">
-        <v>464</v>
+      <c r="G443">
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.35">
@@ -12020,8 +12013,8 @@
       <c r="F444">
         <v>471</v>
       </c>
-      <c r="G444" t="s">
-        <v>464</v>
+      <c r="G444">
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.35">
@@ -12043,8 +12036,8 @@
       <c r="F445">
         <v>471</v>
       </c>
-      <c r="G445" t="s">
-        <v>464</v>
+      <c r="G445">
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.35">
@@ -12066,8 +12059,8 @@
       <c r="F446">
         <v>471</v>
       </c>
-      <c r="G446" t="s">
-        <v>464</v>
+      <c r="G446">
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.35">
@@ -12089,8 +12082,8 @@
       <c r="F447">
         <v>471</v>
       </c>
-      <c r="G447" t="s">
-        <v>464</v>
+      <c r="G447">
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.35">
@@ -12112,8 +12105,8 @@
       <c r="F448">
         <v>471</v>
       </c>
-      <c r="G448" t="s">
-        <v>464</v>
+      <c r="G448">
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.35">
@@ -12135,8 +12128,8 @@
       <c r="F449">
         <v>471</v>
       </c>
-      <c r="G449" t="s">
-        <v>464</v>
+      <c r="G449">
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.35">
@@ -12158,8 +12151,8 @@
       <c r="F450">
         <v>471</v>
       </c>
-      <c r="G450" t="s">
-        <v>464</v>
+      <c r="G450">
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.35">
@@ -12181,8 +12174,8 @@
       <c r="F451">
         <v>471</v>
       </c>
-      <c r="G451" t="s">
-        <v>464</v>
+      <c r="G451">
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.35">
@@ -12204,8 +12197,8 @@
       <c r="F452">
         <v>471</v>
       </c>
-      <c r="G452" t="s">
-        <v>464</v>
+      <c r="G452">
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.35">
@@ -12227,8 +12220,8 @@
       <c r="F453">
         <v>471</v>
       </c>
-      <c r="G453" t="s">
-        <v>464</v>
+      <c r="G453">
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.35">
@@ -12250,8 +12243,8 @@
       <c r="F454">
         <v>471</v>
       </c>
-      <c r="G454" t="s">
-        <v>464</v>
+      <c r="G454">
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.35">
@@ -12273,8 +12266,8 @@
       <c r="F455">
         <v>471</v>
       </c>
-      <c r="G455" t="s">
-        <v>464</v>
+      <c r="G455">
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.35">
@@ -12296,8 +12289,8 @@
       <c r="F456">
         <v>471</v>
       </c>
-      <c r="G456" t="s">
-        <v>464</v>
+      <c r="G456">
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.35">
@@ -12319,8 +12312,8 @@
       <c r="F457">
         <v>471</v>
       </c>
-      <c r="G457" t="s">
-        <v>464</v>
+      <c r="G457">
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.35">
@@ -12342,8 +12335,8 @@
       <c r="F458">
         <v>471</v>
       </c>
-      <c r="G458" t="s">
-        <v>464</v>
+      <c r="G458">
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.35">
@@ -12365,8 +12358,8 @@
       <c r="F459">
         <v>471</v>
       </c>
-      <c r="G459" t="s">
-        <v>464</v>
+      <c r="G459">
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.35">
@@ -12388,8 +12381,8 @@
       <c r="F460">
         <v>471</v>
       </c>
-      <c r="G460" t="s">
-        <v>464</v>
+      <c r="G460">
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.35">
@@ -12411,8 +12404,8 @@
       <c r="F461">
         <v>471</v>
       </c>
-      <c r="G461" t="s">
-        <v>464</v>
+      <c r="G461">
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.35">
@@ -12434,8 +12427,8 @@
       <c r="F462">
         <v>471</v>
       </c>
-      <c r="G462" t="s">
-        <v>464</v>
+      <c r="G462">
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.35">
@@ -12457,8 +12450,8 @@
       <c r="F463">
         <v>471</v>
       </c>
-      <c r="G463" t="s">
-        <v>464</v>
+      <c r="G463">
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.35">
@@ -12480,8 +12473,8 @@
       <c r="F464">
         <v>471</v>
       </c>
-      <c r="G464" t="s">
-        <v>464</v>
+      <c r="G464">
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.35">
@@ -12503,8 +12496,8 @@
       <c r="F465">
         <v>471</v>
       </c>
-      <c r="G465" t="s">
-        <v>464</v>
+      <c r="G465">
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.35">
@@ -12526,8 +12519,8 @@
       <c r="F466">
         <v>471</v>
       </c>
-      <c r="G466" t="s">
-        <v>464</v>
+      <c r="G466">
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.35">
@@ -12549,8 +12542,8 @@
       <c r="F467">
         <v>471</v>
       </c>
-      <c r="G467" t="s">
-        <v>464</v>
+      <c r="G467">
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.35">
@@ -12572,8 +12565,8 @@
       <c r="F468">
         <v>471</v>
       </c>
-      <c r="G468" t="s">
-        <v>464</v>
+      <c r="G468">
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.35">
@@ -12595,8 +12588,8 @@
       <c r="F469">
         <v>471</v>
       </c>
-      <c r="G469" t="s">
-        <v>464</v>
+      <c r="G469">
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.35">
@@ -12618,8 +12611,8 @@
       <c r="F470">
         <v>471</v>
       </c>
-      <c r="G470" t="s">
-        <v>464</v>
+      <c r="G470">
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.35">
@@ -12641,8 +12634,8 @@
       <c r="F471">
         <v>471</v>
       </c>
-      <c r="G471" t="s">
-        <v>464</v>
+      <c r="G471">
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.35">
@@ -12664,8 +12657,8 @@
       <c r="F472">
         <v>471</v>
       </c>
-      <c r="G472" t="s">
-        <v>464</v>
+      <c r="G472">
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.35">
@@ -12687,8 +12680,8 @@
       <c r="F473">
         <v>471</v>
       </c>
-      <c r="G473" t="s">
-        <v>464</v>
+      <c r="G473">
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.35">
@@ -12710,8 +12703,8 @@
       <c r="F474">
         <v>471</v>
       </c>
-      <c r="G474" t="s">
-        <v>464</v>
+      <c r="G474">
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.35">
@@ -12733,8 +12726,8 @@
       <c r="F475">
         <v>471</v>
       </c>
-      <c r="G475" t="s">
-        <v>464</v>
+      <c r="G475">
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.35">
@@ -12756,8 +12749,8 @@
       <c r="F476">
         <v>471</v>
       </c>
-      <c r="G476" t="s">
-        <v>464</v>
+      <c r="G476">
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.35">
@@ -12779,8 +12772,8 @@
       <c r="F477">
         <v>499</v>
       </c>
-      <c r="G477" t="s">
-        <v>464</v>
+      <c r="G477">
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.35">
@@ -12802,8 +12795,8 @@
       <c r="F478">
         <v>499</v>
       </c>
-      <c r="G478" t="s">
-        <v>464</v>
+      <c r="G478">
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.35">
@@ -12825,8 +12818,8 @@
       <c r="F479">
         <v>499</v>
       </c>
-      <c r="G479" t="s">
-        <v>464</v>
+      <c r="G479">
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.35">
@@ -12848,8 +12841,8 @@
       <c r="F480">
         <v>499</v>
       </c>
-      <c r="G480" t="s">
-        <v>464</v>
+      <c r="G480">
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.35">
@@ -12871,8 +12864,8 @@
       <c r="F481">
         <v>499</v>
       </c>
-      <c r="G481" t="s">
-        <v>464</v>
+      <c r="G481">
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.35">
@@ -12894,8 +12887,8 @@
       <c r="F482">
         <v>499</v>
       </c>
-      <c r="G482" t="s">
-        <v>464</v>
+      <c r="G482">
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.35">
@@ -12917,8 +12910,8 @@
       <c r="F483">
         <v>499</v>
       </c>
-      <c r="G483" t="s">
-        <v>464</v>
+      <c r="G483">
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.35">
@@ -12940,8 +12933,8 @@
       <c r="F484">
         <v>499</v>
       </c>
-      <c r="G484" t="s">
-        <v>464</v>
+      <c r="G484">
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.35">
@@ -12963,8 +12956,8 @@
       <c r="F485">
         <v>499</v>
       </c>
-      <c r="G485" t="s">
-        <v>464</v>
+      <c r="G485">
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.35">
@@ -12986,8 +12979,8 @@
       <c r="F486">
         <v>499</v>
       </c>
-      <c r="G486" t="s">
-        <v>464</v>
+      <c r="G486">
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.35">
@@ -13009,8 +13002,8 @@
       <c r="F487">
         <v>499</v>
       </c>
-      <c r="G487" t="s">
-        <v>464</v>
+      <c r="G487">
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.35">
@@ -13032,8 +13025,8 @@
       <c r="F488">
         <v>499</v>
       </c>
-      <c r="G488" t="s">
-        <v>464</v>
+      <c r="G488">
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.35">
@@ -13055,8 +13048,8 @@
       <c r="F489">
         <v>499</v>
       </c>
-      <c r="G489" t="s">
-        <v>464</v>
+      <c r="G489">
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.35">
@@ -13078,8 +13071,8 @@
       <c r="F490">
         <v>499</v>
       </c>
-      <c r="G490" t="s">
-        <v>464</v>
+      <c r="G490">
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.35">
@@ -13101,8 +13094,8 @@
       <c r="F491">
         <v>499</v>
       </c>
-      <c r="G491" t="s">
-        <v>464</v>
+      <c r="G491">
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.35">
@@ -13124,8 +13117,8 @@
       <c r="F492">
         <v>499</v>
       </c>
-      <c r="G492" t="s">
-        <v>464</v>
+      <c r="G492">
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.35">
@@ -13147,8 +13140,8 @@
       <c r="F493">
         <v>499</v>
       </c>
-      <c r="G493" t="s">
-        <v>464</v>
+      <c r="G493">
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.35">
@@ -13170,8 +13163,8 @@
       <c r="F494">
         <v>499</v>
       </c>
-      <c r="G494" t="s">
-        <v>464</v>
+      <c r="G494">
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.35">
@@ -13193,8 +13186,8 @@
       <c r="F495">
         <v>499</v>
       </c>
-      <c r="G495" t="s">
-        <v>464</v>
+      <c r="G495">
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.35">
@@ -13216,8 +13209,8 @@
       <c r="F496">
         <v>499</v>
       </c>
-      <c r="G496" t="s">
-        <v>464</v>
+      <c r="G496">
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.35">
@@ -13239,8 +13232,8 @@
       <c r="F497">
         <v>507</v>
       </c>
-      <c r="G497" t="s">
-        <v>464</v>
+      <c r="G497">
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.35">
@@ -13262,8 +13255,8 @@
       <c r="F498">
         <v>507</v>
       </c>
-      <c r="G498" t="s">
-        <v>464</v>
+      <c r="G498">
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.35">
@@ -13285,8 +13278,8 @@
       <c r="F499">
         <v>507</v>
       </c>
-      <c r="G499" t="s">
-        <v>464</v>
+      <c r="G499">
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.35">
@@ -13308,8 +13301,8 @@
       <c r="F500">
         <v>15</v>
       </c>
-      <c r="G500" t="s">
-        <v>464</v>
+      <c r="G500">
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.35">
@@ -13331,8 +13324,8 @@
       <c r="F501">
         <v>15</v>
       </c>
-      <c r="G501" t="s">
-        <v>464</v>
+      <c r="G501">
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.35">
@@ -13354,8 +13347,8 @@
       <c r="F502">
         <v>15</v>
       </c>
-      <c r="G502" t="s">
-        <v>464</v>
+      <c r="G502">
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.35">
@@ -13377,8 +13370,8 @@
       <c r="F503">
         <v>15</v>
       </c>
-      <c r="G503" t="s">
-        <v>464</v>
+      <c r="G503">
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.35">
@@ -13400,8 +13393,8 @@
       <c r="F504">
         <v>15</v>
       </c>
-      <c r="G504" t="s">
-        <v>464</v>
+      <c r="G504">
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.35">
@@ -13423,8 +13416,8 @@
       <c r="F505">
         <v>15</v>
       </c>
-      <c r="G505" t="s">
-        <v>464</v>
+      <c r="G505">
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.35">
@@ -13446,8 +13439,8 @@
       <c r="F506">
         <v>15</v>
       </c>
-      <c r="G506" t="s">
-        <v>464</v>
+      <c r="G506">
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.35">
@@ -13469,8 +13462,8 @@
       <c r="F507">
         <v>15</v>
       </c>
-      <c r="G507" t="s">
-        <v>464</v>
+      <c r="G507">
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.35">
@@ -13492,8 +13485,8 @@
       <c r="F508">
         <v>15</v>
       </c>
-      <c r="G508" t="s">
-        <v>464</v>
+      <c r="G508">
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.35">
@@ -13515,8 +13508,8 @@
       <c r="F509">
         <v>15</v>
       </c>
-      <c r="G509" t="s">
-        <v>464</v>
+      <c r="G509">
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.35">
@@ -13538,8 +13531,8 @@
       <c r="F510">
         <v>15</v>
       </c>
-      <c r="G510" t="s">
-        <v>464</v>
+      <c r="G510">
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.35">
@@ -13561,8 +13554,8 @@
       <c r="F511">
         <v>15</v>
       </c>
-      <c r="G511" t="s">
-        <v>464</v>
+      <c r="G511">
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.35">
@@ -13584,8 +13577,8 @@
       <c r="F512">
         <v>15</v>
       </c>
-      <c r="G512" t="s">
-        <v>464</v>
+      <c r="G512">
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.35">
@@ -13607,8 +13600,8 @@
       <c r="F513">
         <v>15</v>
       </c>
-      <c r="G513" t="s">
-        <v>464</v>
+      <c r="G513">
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.35">
@@ -13630,8 +13623,8 @@
       <c r="F514">
         <v>15</v>
       </c>
-      <c r="G514" t="s">
-        <v>464</v>
+      <c r="G514">
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.35">
@@ -13653,8 +13646,8 @@
       <c r="F515">
         <v>15</v>
       </c>
-      <c r="G515" t="s">
-        <v>464</v>
+      <c r="G515">
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.35">
@@ -13676,8 +13669,8 @@
       <c r="F516">
         <v>15</v>
       </c>
-      <c r="G516" t="s">
-        <v>464</v>
+      <c r="G516">
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.35">
@@ -13699,8 +13692,8 @@
       <c r="F517">
         <v>15</v>
       </c>
-      <c r="G517" t="s">
-        <v>464</v>
+      <c r="G517">
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.35">
@@ -13722,8 +13715,8 @@
       <c r="F518">
         <v>15</v>
       </c>
-      <c r="G518" t="s">
-        <v>464</v>
+      <c r="G518">
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.35">
@@ -13745,8 +13738,8 @@
       <c r="F519">
         <v>15</v>
       </c>
-      <c r="G519" t="s">
-        <v>464</v>
+      <c r="G519">
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.35">
@@ -13768,8 +13761,8 @@
       <c r="F520">
         <v>15</v>
       </c>
-      <c r="G520" t="s">
-        <v>464</v>
+      <c r="G520">
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.35">
@@ -13791,8 +13784,8 @@
       <c r="F521">
         <v>15</v>
       </c>
-      <c r="G521" t="s">
-        <v>464</v>
+      <c r="G521">
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.35">
@@ -13814,8 +13807,8 @@
       <c r="F522">
         <v>15</v>
       </c>
-      <c r="G522" t="s">
-        <v>464</v>
+      <c r="G522">
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.35">
@@ -13837,8 +13830,8 @@
       <c r="F523">
         <v>15</v>
       </c>
-      <c r="G523" t="s">
-        <v>464</v>
+      <c r="G523">
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.35">
@@ -13860,8 +13853,8 @@
       <c r="F524">
         <v>15</v>
       </c>
-      <c r="G524" t="s">
-        <v>464</v>
+      <c r="G524">
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.35">
@@ -13883,8 +13876,8 @@
       <c r="F525">
         <v>15</v>
       </c>
-      <c r="G525" t="s">
-        <v>464</v>
+      <c r="G525">
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.35">
@@ -13906,8 +13899,8 @@
       <c r="F526">
         <v>15</v>
       </c>
-      <c r="G526" t="s">
-        <v>464</v>
+      <c r="G526">
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.35">
@@ -13929,8 +13922,8 @@
       <c r="F527">
         <v>15</v>
       </c>
-      <c r="G527" t="s">
-        <v>464</v>
+      <c r="G527">
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.35">
@@ -13952,8 +13945,8 @@
       <c r="F528">
         <v>15</v>
       </c>
-      <c r="G528" t="s">
-        <v>464</v>
+      <c r="G528">
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.35">
@@ -13975,8 +13968,8 @@
       <c r="F529">
         <v>82</v>
       </c>
-      <c r="G529" t="s">
-        <v>464</v>
+      <c r="G529">
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.35">
@@ -13998,8 +13991,8 @@
       <c r="F530">
         <v>82</v>
       </c>
-      <c r="G530" t="s">
-        <v>464</v>
+      <c r="G530">
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.35">
@@ -14021,8 +14014,8 @@
       <c r="F531">
         <v>82</v>
       </c>
-      <c r="G531" t="s">
-        <v>464</v>
+      <c r="G531">
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.35">
@@ -14044,8 +14037,8 @@
       <c r="F532">
         <v>82</v>
       </c>
-      <c r="G532" t="s">
-        <v>464</v>
+      <c r="G532">
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.35">
@@ -14067,8 +14060,8 @@
       <c r="F533">
         <v>82</v>
       </c>
-      <c r="G533" t="s">
-        <v>464</v>
+      <c r="G533">
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.35">
@@ -14090,8 +14083,8 @@
       <c r="F534">
         <v>82</v>
       </c>
-      <c r="G534" t="s">
-        <v>464</v>
+      <c r="G534">
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.35">
@@ -14113,8 +14106,8 @@
       <c r="F535">
         <v>82</v>
       </c>
-      <c r="G535" t="s">
-        <v>464</v>
+      <c r="G535">
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.35">
@@ -14136,8 +14129,8 @@
       <c r="F536">
         <v>82</v>
       </c>
-      <c r="G536" t="s">
-        <v>464</v>
+      <c r="G536">
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.35">
@@ -14159,8 +14152,8 @@
       <c r="F537">
         <v>82</v>
       </c>
-      <c r="G537" t="s">
-        <v>464</v>
+      <c r="G537">
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.35">
@@ -14182,8 +14175,8 @@
       <c r="F538">
         <v>82</v>
       </c>
-      <c r="G538" t="s">
-        <v>464</v>
+      <c r="G538">
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.35">
@@ -14205,8 +14198,8 @@
       <c r="F539">
         <v>82</v>
       </c>
-      <c r="G539" t="s">
-        <v>464</v>
+      <c r="G539">
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.35">
@@ -14228,8 +14221,8 @@
       <c r="F540">
         <v>82</v>
       </c>
-      <c r="G540" t="s">
-        <v>464</v>
+      <c r="G540">
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.35">
@@ -14251,8 +14244,8 @@
       <c r="F541">
         <v>82</v>
       </c>
-      <c r="G541" t="s">
-        <v>464</v>
+      <c r="G541">
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.35">
@@ -14274,8 +14267,8 @@
       <c r="F542">
         <v>82</v>
       </c>
-      <c r="G542" t="s">
-        <v>464</v>
+      <c r="G542">
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.35">
@@ -14297,8 +14290,8 @@
       <c r="F543">
         <v>82</v>
       </c>
-      <c r="G543" t="s">
-        <v>464</v>
+      <c r="G543">
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.35">
@@ -14320,8 +14313,8 @@
       <c r="F544">
         <v>82</v>
       </c>
-      <c r="G544" t="s">
-        <v>464</v>
+      <c r="G544">
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.35">
@@ -14343,8 +14336,8 @@
       <c r="F545">
         <v>86</v>
       </c>
-      <c r="G545" t="s">
-        <v>464</v>
+      <c r="G545">
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.35">
@@ -14366,8 +14359,8 @@
       <c r="F546">
         <v>86</v>
       </c>
-      <c r="G546" t="s">
-        <v>464</v>
+      <c r="G546">
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.35">
@@ -14389,8 +14382,8 @@
       <c r="F547">
         <v>86</v>
       </c>
-      <c r="G547" t="s">
-        <v>464</v>
+      <c r="G547">
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.35">
@@ -14412,8 +14405,8 @@
       <c r="F548">
         <v>86</v>
       </c>
-      <c r="G548" t="s">
-        <v>464</v>
+      <c r="G548">
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.35">
@@ -14435,8 +14428,8 @@
       <c r="F549">
         <v>86</v>
       </c>
-      <c r="G549" t="s">
-        <v>464</v>
+      <c r="G549">
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.35">
@@ -14458,8 +14451,8 @@
       <c r="F550">
         <v>86</v>
       </c>
-      <c r="G550" t="s">
-        <v>464</v>
+      <c r="G550">
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.35">
@@ -14481,8 +14474,8 @@
       <c r="F551">
         <v>86</v>
       </c>
-      <c r="G551" t="s">
-        <v>464</v>
+      <c r="G551">
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.35">
@@ -14504,8 +14497,8 @@
       <c r="F552">
         <v>86</v>
       </c>
-      <c r="G552" t="s">
-        <v>464</v>
+      <c r="G552">
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.35">
@@ -14527,8 +14520,8 @@
       <c r="F553">
         <v>86</v>
       </c>
-      <c r="G553" t="s">
-        <v>464</v>
+      <c r="G553">
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.35">
@@ -14550,8 +14543,8 @@
       <c r="F554">
         <v>86</v>
       </c>
-      <c r="G554" t="s">
-        <v>464</v>
+      <c r="G554">
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.35">
@@ -14573,8 +14566,8 @@
       <c r="F555">
         <v>86</v>
       </c>
-      <c r="G555" t="s">
-        <v>464</v>
+      <c r="G555">
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.35">
@@ -14596,8 +14589,8 @@
       <c r="F556">
         <v>86</v>
       </c>
-      <c r="G556" t="s">
-        <v>464</v>
+      <c r="G556">
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.35">
@@ -14619,8 +14612,8 @@
       <c r="F557">
         <v>86</v>
       </c>
-      <c r="G557" t="s">
-        <v>464</v>
+      <c r="G557">
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.35">
@@ -14642,8 +14635,8 @@
       <c r="F558">
         <v>86</v>
       </c>
-      <c r="G558" t="s">
-        <v>464</v>
+      <c r="G558">
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.35">
@@ -14665,8 +14658,8 @@
       <c r="F559">
         <v>86</v>
       </c>
-      <c r="G559" t="s">
-        <v>464</v>
+      <c r="G559">
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.35">
@@ -14688,8 +14681,8 @@
       <c r="F560">
         <v>86</v>
       </c>
-      <c r="G560" t="s">
-        <v>464</v>
+      <c r="G560">
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.35">
@@ -14711,8 +14704,8 @@
       <c r="F561">
         <v>86</v>
       </c>
-      <c r="G561" t="s">
-        <v>464</v>
+      <c r="G561">
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.35">
@@ -14734,8 +14727,8 @@
       <c r="F562">
         <v>86</v>
       </c>
-      <c r="G562" t="s">
-        <v>464</v>
+      <c r="G562">
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.35">
@@ -14757,8 +14750,8 @@
       <c r="F563">
         <v>86</v>
       </c>
-      <c r="G563" t="s">
-        <v>464</v>
+      <c r="G563">
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.35">
@@ -14780,8 +14773,8 @@
       <c r="F564">
         <v>86</v>
       </c>
-      <c r="G564" t="s">
-        <v>464</v>
+      <c r="G564">
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.35">
@@ -14803,8 +14796,8 @@
       <c r="F565">
         <v>86</v>
       </c>
-      <c r="G565" t="s">
-        <v>464</v>
+      <c r="G565">
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.35">
@@ -14826,8 +14819,8 @@
       <c r="F566">
         <v>86</v>
       </c>
-      <c r="G566" t="s">
-        <v>464</v>
+      <c r="G566">
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.35">
@@ -14849,8 +14842,8 @@
       <c r="F567">
         <v>86</v>
       </c>
-      <c r="G567" t="s">
-        <v>464</v>
+      <c r="G567">
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.35">
@@ -14872,8 +14865,8 @@
       <c r="F568">
         <v>86</v>
       </c>
-      <c r="G568" t="s">
-        <v>464</v>
+      <c r="G568">
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.35">
@@ -14895,8 +14888,8 @@
       <c r="F569">
         <v>86</v>
       </c>
-      <c r="G569" t="s">
-        <v>464</v>
+      <c r="G569">
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.35">
@@ -14918,8 +14911,8 @@
       <c r="F570">
         <v>86</v>
       </c>
-      <c r="G570" t="s">
-        <v>464</v>
+      <c r="G570">
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.35">
@@ -14941,8 +14934,8 @@
       <c r="F571">
         <v>86</v>
       </c>
-      <c r="G571" t="s">
-        <v>464</v>
+      <c r="G571">
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.35">
@@ -14964,8 +14957,8 @@
       <c r="F572">
         <v>86</v>
       </c>
-      <c r="G572" t="s">
-        <v>464</v>
+      <c r="G572">
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.35">
@@ -14987,8 +14980,8 @@
       <c r="F573">
         <v>86</v>
       </c>
-      <c r="G573" t="s">
-        <v>464</v>
+      <c r="G573">
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.35">
@@ -15010,8 +15003,8 @@
       <c r="F574">
         <v>86</v>
       </c>
-      <c r="G574" t="s">
-        <v>464</v>
+      <c r="G574">
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.35">
@@ -15033,8 +15026,8 @@
       <c r="F575">
         <v>86</v>
       </c>
-      <c r="G575" t="s">
-        <v>464</v>
+      <c r="G575">
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.35">
@@ -15056,8 +15049,8 @@
       <c r="F576">
         <v>86</v>
       </c>
-      <c r="G576" t="s">
-        <v>464</v>
+      <c r="G576">
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.35">
@@ -15079,8 +15072,8 @@
       <c r="F577">
         <v>104</v>
       </c>
-      <c r="G577" t="s">
-        <v>464</v>
+      <c r="G577">
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.35">
@@ -15102,16 +15095,12 @@
       <c r="F578">
         <v>104</v>
       </c>
-      <c r="G578" t="s">
-        <v>464</v>
+      <c r="G578">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G578" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G578" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>